--- a/reports/_HJB_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-11-28_58_.xlsx
+++ b/reports/_HJB_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-11-28_58_.xlsx
@@ -136,7 +136,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -172,7 +172,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED (OCL)</t>
         </is>
       </c>
     </row>
@@ -186,7 +186,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>HJB</t>
         </is>
       </c>
     </row>
@@ -418,7 +418,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -434,7 +434,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED (OCL)</t>
         </is>
       </c>
     </row>
@@ -448,7 +448,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>HJB</t>
         </is>
       </c>
     </row>
@@ -568,7 +568,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -605,7 +605,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED (OCL)</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>HJB</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -879,7 +879,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED (OCL)</t>
         </is>
       </c>
     </row>
@@ -893,7 +893,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>HJB</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1050,7 +1050,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED (OCL)</t>
         </is>
       </c>
     </row>
@@ -1064,7 +1064,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>HJB</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -1324,7 +1324,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED (OCL)</t>
         </is>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>HJB</t>
         </is>
       </c>
     </row>
@@ -1458,7 +1458,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1492,7 +1492,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED (OCL)</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>HJB</t>
         </is>
       </c>
     </row>
@@ -9475,7 +9475,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -9491,7 +9491,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED (OCL)</t>
         </is>
       </c>
     </row>
@@ -9505,7 +9505,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>HJB</t>
         </is>
       </c>
     </row>

--- a/reports/_HJB_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-11-28_58_.xlsx
+++ b/reports/_HJB_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-11-28_58_.xlsx
@@ -17,9 +17,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="100" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="101" formatCode="yyyy/mm/dd hh:mm:ss"/>
+    <numFmt numFmtId="102" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -108,13 +109,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="0" numFmtId="14" fontId="0" fillId="0" xfId="0" applyNumberFormat="1"/>
     <xf borderId="2" numFmtId="0" fontId="1" fillId="2" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" wrapText="false"/>
     </xf>
+    <xf borderId="0" numFmtId="102" fontId="0" fillId="0" applyNumberFormat="true" applyFill="false" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf borderId="3" numFmtId="0" fontId="2" fillId="3" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
   </cellXfs>
   <cellStyles count="1">
@@ -130,43 +132,35 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.2561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.213483146067416"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="25.213483146067418"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="21.789887640449443"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="28.213483146067418"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="8.713483146067416"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="16.213483146067418"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -176,220 +170,173 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>HJB</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>HJB</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>In Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Unstuffing Date</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>Out Date</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Vessel</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>In Transport</t>
-        </is>
-      </c>
-      <c r="AD7" s="4" t="inlineStr">
-        <is>
-          <t>In Trailer</t>
-        </is>
-      </c>
-      <c r="AE7" s="4" t="inlineStr">
-        <is>
-          <t>In Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0" t="d">
+      <c r="A7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0" t="d">
         <v>0001-01-01T00:00:00</v>
       </c>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -412,23 +359,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.2561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.713483146067418"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.213483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -438,106 +385,104 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>HJB</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>HJB</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>In Report Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Container Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total Box</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>Total Teus</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="0" t="n">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -562,44 +507,42 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD8"/>
+  <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.2561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.713483146067418"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="25.213483146067418"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="21.789887640449443"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="28.213483146067418"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="25.213483146067418"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="5.713483146067416"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="8.713483146067416"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="8.713483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -609,232 +552,215 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>HJB</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>HJB</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Out Empty Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Destination Location</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Export Vessel Name</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Export Rotation Number</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Stuffing Date</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Gate Out Date</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Seal No</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>Cbm</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>Forwarder</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="AB6" s="5" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="AC6" s="5" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="AD6" s="5" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Height</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Vessel</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>Unstuffing Date</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>In Transport</t>
-        </is>
-      </c>
-      <c r="AD7" s="4" t="inlineStr">
-        <is>
-          <t>In Trailer</t>
-        </is>
-      </c>
-      <c r="AE7" s="4" t="inlineStr">
-        <is>
-          <t>Trailer #</t>
-        </is>
-      </c>
-      <c r="AF7" s="4" t="inlineStr">
-        <is>
-          <t>In Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0" t="d">
+      <c r="A7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0" t="d">
         <v>0001-01-01T00:00:00</v>
       </c>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="0"/>
-      <c r="AC8" s="0"/>
-      <c r="AD8" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -857,23 +783,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.2561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.713483146067418"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.213483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -883,106 +809,104 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>HJB</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>HJB</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Out Empty Report Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Container Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total Box</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>Total Teus</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="0" t="n">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1007,44 +931,42 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD8"/>
+  <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.2561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.213483146067416"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="25.213483146067418"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="21.789887640449443"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="28.213483146067418"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="25.213483146067418"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="5.713483146067416"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="8.713483146067416"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="29" max="29" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="8.713483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -1054,232 +976,215 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>HJB</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>HJB</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Out Laden Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Destination Location</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Export Vessel Name</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Export Rotation Number</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Stuffing Date</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Gate Out Date</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Seal No</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>Cbm</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>Forwarder</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="AB6" s="5" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="AC6" s="5" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="AD6" s="5" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Vessel</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>CNFCommodity</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Current Depo</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>Out Date</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>Out Location</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>Total Lot</t>
-        </is>
-      </c>
-      <c r="AD7" s="4" t="inlineStr">
-        <is>
-          <t>Total Weight</t>
-        </is>
-      </c>
-      <c r="AE7" s="4" t="inlineStr">
-        <is>
-          <t>Out Transport</t>
-        </is>
-      </c>
-      <c r="AF7" s="4" t="inlineStr">
-        <is>
-          <t>Out Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0" t="d">
+      <c r="A7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0" t="d">
         <v>0001-01-01T00:00:00</v>
       </c>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="0"/>
-      <c r="AC8" s="0"/>
-      <c r="AD8" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -1302,23 +1207,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.2561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.713483146067418"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.213483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -1328,106 +1233,104 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>HJB</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>HJB</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Out Laden Report Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Container Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total Box</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>Total Teus</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="0" t="n">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1452,41 +1355,39 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA79"/>
+  <dimension ref="A1:AA78"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.2561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.589887640449438"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="8.713483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.213483146067416"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.713483146067418"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="32.78988764044944"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.989887640449439"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="25.213483146067418"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="21.789887640449443"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="28.213483146067418"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="21" max="21" bestFit="true" customWidth="true" width="10.78988764044944"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="47.08988764044945"/>
     <col min="24" max="24" bestFit="true" customWidth="true" width="53.68988764044944"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="16.213483146067418"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -1496,189 +1397,257 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>HJB</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
+          <t>Stock Report</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>Total number of conatiners:72</t>
+        </is>
+      </c>
+    </row>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="L6" s="4" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="M6" s="4" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="N6" s="4" t="inlineStr">
+        <is>
+          <t>Bay Location</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Storage Day</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Container Status</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Container Status Name</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>36738</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>CXDU1788310</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>HSB</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
           <t>HJB</t>
         </is>
       </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Stock Report</t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>Total number of conatiners:72</t>
-        </is>
-      </c>
-    </row>
-    <row r="6"/>
-    <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Vessel</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>SAPL-OCL</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>SAPL-OCL</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>HIJAU SAMUDRA004/2016/1869</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>2016/1869</t>
+        </is>
+      </c>
+      <c r="K7" s="0" t="inlineStr">
+        <is>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="L7" s="4" t="d">
+        <v>2016-08-14T00:00:00</v>
       </c>
       <c r="M7" s="4" t="inlineStr">
         <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>Trailer #</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>In Transport</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>In Remarks</t>
-        </is>
-      </c>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="0" t="n">
+        <v>836</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="0" t="inlineStr">
+        <is>
+          <t>Empty</t>
+        </is>
+      </c>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0" t="n">
+        <v>1211249</v>
+      </c>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>36738</v>
+        <v>36741</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>CXDU1788310</t>
+          <t>RFCU5018760</t>
         </is>
       </c>
       <c r="C8" s="0" t="n">
@@ -1716,7 +1685,7 @@
       </c>
       <c r="J8" s="0" t="inlineStr">
         <is>
-          <t>2016/1869</t>
+          <t>2016/2053</t>
         </is>
       </c>
       <c r="K8" s="0" t="inlineStr">
@@ -1724,17 +1693,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L8" s="0" t="d">
-        <v>2016-08-14T00:00:00</v>
-      </c>
-      <c r="M8" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N8" s="0"/>
+      <c r="L8" s="4" t="d">
+        <v>2016-08-15T00:00:00</v>
+      </c>
+      <c r="M8" s="4" t="inlineStr">
+        <is>
+          <t>SWEEP</t>
+        </is>
+      </c>
+      <c r="N8" s="4"/>
       <c r="O8" s="0" t="n">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="P8" s="0" t="n">
         <v>0</v>
@@ -1748,22 +1717,46 @@
       <c r="S8" s="0"/>
       <c r="T8" s="0"/>
       <c r="U8" s="0" t="n">
-        <v>1211249</v>
-      </c>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
+        <v>1211849</v>
+      </c>
+      <c r="V8" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="W8" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="X8" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD SWEEPING </t>
+        </is>
+      </c>
+      <c r="Y8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>36764</v>
+        <v>36742</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>RFCU5053776</t>
+          <t>HJCU1387941</t>
         </is>
       </c>
       <c r="C9" s="0" t="n">
@@ -1796,12 +1789,12 @@
       </c>
       <c r="I9" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS NUPTSE.023.2016/2140</t>
+          <t>KOTA BUANA0063/2016/1974</t>
         </is>
       </c>
       <c r="J9" s="0" t="inlineStr">
         <is>
-          <t>2016/2140</t>
+          <t>2016/2147</t>
         </is>
       </c>
       <c r="K9" s="0" t="inlineStr">
@@ -1809,17 +1802,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L9" s="0" t="d">
-        <v>2016-08-24T00:00:00</v>
-      </c>
-      <c r="M9" s="0" t="inlineStr">
-        <is>
-          <t>SWEEP</t>
-        </is>
-      </c>
-      <c r="N9" s="0"/>
+      <c r="L9" s="4" t="d">
+        <v>2016-08-17T00:00:00</v>
+      </c>
+      <c r="M9" s="4" t="inlineStr">
+        <is>
+          <t>REPAIRED</t>
+        </is>
+      </c>
+      <c r="N9" s="4"/>
       <c r="O9" s="0" t="n">
-        <v>826</v>
+        <v>833</v>
       </c>
       <c r="P9" s="0" t="n">
         <v>0</v>
@@ -1833,7 +1826,7 @@
       <c r="S9" s="0"/>
       <c r="T9" s="0"/>
       <c r="U9" s="0" t="n">
-        <v>1214902</v>
+        <v>1212307</v>
       </c>
       <c r="V9" s="0" t="inlineStr">
         <is>
@@ -1847,7 +1840,7 @@
       </c>
       <c r="X9" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD SWEEPING,</t>
+          <t>FLOOR BOARD DIRTY</t>
         </is>
       </c>
       <c r="Y9" s="0" t="inlineStr">
@@ -1868,11 +1861,11 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>36765</v>
+        <v>36742</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>BMOU5879656</t>
+          <t>HJCU1387941</t>
         </is>
       </c>
       <c r="C10" s="0" t="n">
@@ -1905,12 +1898,12 @@
       </c>
       <c r="I10" s="0" t="inlineStr">
         <is>
-          <t>SINAR SANGIR0301/2016/2307</t>
+          <t>KOTA BUANA0063/2016/1974</t>
         </is>
       </c>
       <c r="J10" s="0" t="inlineStr">
         <is>
-          <t>2016/2140</t>
+          <t>2016/2147</t>
         </is>
       </c>
       <c r="K10" s="0" t="inlineStr">
@@ -1918,17 +1911,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L10" s="0" t="d">
-        <v>2016-08-24T00:00:00</v>
-      </c>
-      <c r="M10" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N10" s="0"/>
+      <c r="L10" s="4" t="d">
+        <v>2016-08-17T00:00:00</v>
+      </c>
+      <c r="M10" s="4" t="inlineStr">
+        <is>
+          <t>REPAIRED</t>
+        </is>
+      </c>
+      <c r="N10" s="4"/>
       <c r="O10" s="0" t="n">
-        <v>826</v>
+        <v>833</v>
       </c>
       <c r="P10" s="0" t="n">
         <v>0</v>
@@ -1942,7 +1935,7 @@
       <c r="S10" s="0"/>
       <c r="T10" s="0"/>
       <c r="U10" s="0" t="n">
-        <v>1214915</v>
+        <v>1212307</v>
       </c>
       <c r="V10" s="0" t="inlineStr">
         <is>
@@ -1956,7 +1949,7 @@
       </c>
       <c r="X10" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY MUD DUST,</t>
+          <t>FLOOR BOARD NAILS 2 PCS &amp; WOODEN 1 PCS,</t>
         </is>
       </c>
       <c r="Y10" s="0" t="inlineStr">
@@ -1977,11 +1970,11 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>36766</v>
+        <v>36742</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>HJCU1701841</t>
+          <t>HJCU1387941</t>
         </is>
       </c>
       <c r="C11" s="0" t="n">
@@ -2014,12 +2007,12 @@
       </c>
       <c r="I11" s="0" t="inlineStr">
         <is>
-          <t>SINAR SANGIR0301/2016/2307</t>
+          <t>KOTA BUANA0063/2016/1974</t>
         </is>
       </c>
       <c r="J11" s="0" t="inlineStr">
         <is>
-          <t>2016/2140</t>
+          <t>2016/2147</t>
         </is>
       </c>
       <c r="K11" s="0" t="inlineStr">
@@ -2027,17 +2020,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L11" s="0" t="d">
-        <v>2016-08-24T00:00:00</v>
-      </c>
-      <c r="M11" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N11" s="0"/>
+      <c r="L11" s="4" t="d">
+        <v>2016-08-17T00:00:00</v>
+      </c>
+      <c r="M11" s="4" t="inlineStr">
+        <is>
+          <t>REPAIRED</t>
+        </is>
+      </c>
+      <c r="N11" s="4"/>
       <c r="O11" s="0" t="n">
-        <v>826</v>
+        <v>833</v>
       </c>
       <c r="P11" s="0" t="n">
         <v>0</v>
@@ -2051,21 +2044,21 @@
       <c r="S11" s="0"/>
       <c r="T11" s="0"/>
       <c r="U11" s="0" t="n">
-        <v>1214945</v>
+        <v>1212307</v>
       </c>
       <c r="V11" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>RAILS-(RAILS)</t>
         </is>
       </c>
       <c r="W11" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+          <t>Front bottom rail-(Front bottom rail)</t>
         </is>
       </c>
       <c r="X11" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY</t>
+          <t>FRONT BOTTOM RAIL CRACKET 6" AT 2 PLASE,</t>
         </is>
       </c>
       <c r="Y11" s="0" t="inlineStr">
@@ -2086,11 +2079,11 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>36768</v>
+        <v>36742</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>BMOU4526459</t>
+          <t>HJCU1387941</t>
         </is>
       </c>
       <c r="C12" s="0" t="n">
@@ -2123,12 +2116,12 @@
       </c>
       <c r="I12" s="0" t="inlineStr">
         <is>
-          <t>SINAR SANGIR0301/2016/2307</t>
+          <t>KOTA BUANA0063/2016/1974</t>
         </is>
       </c>
       <c r="J12" s="0" t="inlineStr">
         <is>
-          <t>2016/2140</t>
+          <t>2016/2147</t>
         </is>
       </c>
       <c r="K12" s="0" t="inlineStr">
@@ -2136,17 +2129,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L12" s="0" t="d">
-        <v>2016-08-24T00:00:00</v>
-      </c>
-      <c r="M12" s="0" t="inlineStr">
+      <c r="L12" s="4" t="d">
+        <v>2016-08-17T00:00:00</v>
+      </c>
+      <c r="M12" s="4" t="inlineStr">
         <is>
           <t>REPAIRED</t>
         </is>
       </c>
-      <c r="N12" s="0"/>
+      <c r="N12" s="4"/>
       <c r="O12" s="0" t="n">
-        <v>826</v>
+        <v>833</v>
       </c>
       <c r="P12" s="0" t="n">
         <v>0</v>
@@ -2160,21 +2153,21 @@
       <c r="S12" s="0"/>
       <c r="T12" s="0"/>
       <c r="U12" s="0" t="n">
-        <v>1214978</v>
+        <v>1212307</v>
       </c>
       <c r="V12" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W12" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X12" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY OIL STAIN</t>
+          <t>RIGHT SIDE PANEL CUT 2",</t>
         </is>
       </c>
       <c r="Y12" s="0" t="inlineStr">
@@ -2195,11 +2188,11 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>36768</v>
+        <v>36743</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>BMOU4526459</t>
+          <t>TGHU9425066</t>
         </is>
       </c>
       <c r="C13" s="0" t="n">
@@ -2232,12 +2225,12 @@
       </c>
       <c r="I13" s="0" t="inlineStr">
         <is>
-          <t>SINAR SANGIR0301/2016/2307</t>
+          <t>KOTA BUANA0063/2016/1974</t>
         </is>
       </c>
       <c r="J13" s="0" t="inlineStr">
         <is>
-          <t>2016/2140</t>
+          <t>2016/2118</t>
         </is>
       </c>
       <c r="K13" s="0" t="inlineStr">
@@ -2245,17 +2238,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L13" s="0" t="d">
-        <v>2016-08-24T00:00:00</v>
-      </c>
-      <c r="M13" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
-      <c r="N13" s="0"/>
+      <c r="L13" s="4" t="d">
+        <v>2016-08-17T00:00:00</v>
+      </c>
+      <c r="M13" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N13" s="4"/>
       <c r="O13" s="0" t="n">
-        <v>826</v>
+        <v>833</v>
       </c>
       <c r="P13" s="0" t="n">
         <v>0</v>
@@ -2269,21 +2262,21 @@
       <c r="S13" s="0"/>
       <c r="T13" s="0"/>
       <c r="U13" s="0" t="n">
-        <v>1214978</v>
+        <v>1212323</v>
       </c>
       <c r="V13" s="0" t="inlineStr">
         <is>
-          <t>DOORS-(D)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W13" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
         </is>
       </c>
       <c r="X13" s="0" t="inlineStr">
         <is>
-          <t>LEFT DOOR BOTTOM RAIL BENT 12" (DOOR UN LOCK)</t>
+          <t>FLOOR BOARD DIRTY BY OIL SPOT &amp; TYRE MARK</t>
         </is>
       </c>
       <c r="Y13" s="0" t="inlineStr">
@@ -2304,11 +2297,11 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>36769</v>
+        <v>36743</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>DFSU7594211</t>
+          <t>TGHU9425066</t>
         </is>
       </c>
       <c r="C14" s="0" t="n">
@@ -2341,12 +2334,12 @@
       </c>
       <c r="I14" s="0" t="inlineStr">
         <is>
-          <t>SINAR SANGIR0301/2016/2307</t>
+          <t>KOTA BUANA0063/2016/1974</t>
         </is>
       </c>
       <c r="J14" s="0" t="inlineStr">
         <is>
-          <t>2016/2140</t>
+          <t>2016/2118</t>
         </is>
       </c>
       <c r="K14" s="0" t="inlineStr">
@@ -2354,17 +2347,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L14" s="0" t="d">
-        <v>2016-08-24T00:00:00</v>
-      </c>
-      <c r="M14" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
-      <c r="N14" s="0"/>
+      <c r="L14" s="4" t="d">
+        <v>2016-08-17T00:00:00</v>
+      </c>
+      <c r="M14" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N14" s="4"/>
       <c r="O14" s="0" t="n">
-        <v>826</v>
+        <v>833</v>
       </c>
       <c r="P14" s="0" t="n">
         <v>0</v>
@@ -2378,21 +2371,21 @@
       <c r="S14" s="0"/>
       <c r="T14" s="0"/>
       <c r="U14" s="0" t="n">
-        <v>1214982</v>
+        <v>1212323</v>
       </c>
       <c r="V14" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W14" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+          <t>Left side panel-(Left side panel)</t>
         </is>
       </c>
       <c r="X14" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY</t>
+          <t>LEFT SIDE PANEL PATCH 1 PLASE,</t>
         </is>
       </c>
       <c r="Y14" s="0" t="inlineStr">
@@ -2413,11 +2406,11 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>36769</v>
+        <v>36744</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>DFSU7594211</t>
+          <t>SEGU4127522</t>
         </is>
       </c>
       <c r="C15" s="0" t="n">
@@ -2450,12 +2443,12 @@
       </c>
       <c r="I15" s="0" t="inlineStr">
         <is>
-          <t>SINAR SANGIR0301/2016/2307</t>
+          <t>KOTA BUANA0063/2016/1974</t>
         </is>
       </c>
       <c r="J15" s="0" t="inlineStr">
         <is>
-          <t>2016/2140</t>
+          <t>2016/2022</t>
         </is>
       </c>
       <c r="K15" s="0" t="inlineStr">
@@ -2463,17 +2456,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L15" s="0" t="d">
-        <v>2016-08-24T00:00:00</v>
-      </c>
-      <c r="M15" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
-      <c r="N15" s="0"/>
+      <c r="L15" s="4" t="d">
+        <v>2016-08-17T00:00:00</v>
+      </c>
+      <c r="M15" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N15" s="4"/>
       <c r="O15" s="0" t="n">
-        <v>826</v>
+        <v>833</v>
       </c>
       <c r="P15" s="0" t="n">
         <v>0</v>
@@ -2487,21 +2480,21 @@
       <c r="S15" s="0"/>
       <c r="T15" s="0"/>
       <c r="U15" s="0" t="n">
-        <v>1214982</v>
+        <v>1212351</v>
       </c>
       <c r="V15" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W15" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
         </is>
       </c>
       <c r="X15" s="0" t="inlineStr">
         <is>
-          <t>INTERIOR PANEL DIRTY</t>
+          <t>FLOOR BOARD DIRTY BY BLACK &amp; OIL STAIN</t>
         </is>
       </c>
       <c r="Y15" s="0" t="inlineStr">
@@ -2522,11 +2515,11 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>36769</v>
+        <v>36744</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>DFSU7594211</t>
+          <t>SEGU4127522</t>
         </is>
       </c>
       <c r="C16" s="0" t="n">
@@ -2559,12 +2552,12 @@
       </c>
       <c r="I16" s="0" t="inlineStr">
         <is>
-          <t>SINAR SANGIR0301/2016/2307</t>
+          <t>KOTA BUANA0063/2016/1974</t>
         </is>
       </c>
       <c r="J16" s="0" t="inlineStr">
         <is>
-          <t>2016/2140</t>
+          <t>2016/2022</t>
         </is>
       </c>
       <c r="K16" s="0" t="inlineStr">
@@ -2572,17 +2565,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L16" s="0" t="d">
-        <v>2016-08-24T00:00:00</v>
-      </c>
-      <c r="M16" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
-      <c r="N16" s="0"/>
+      <c r="L16" s="4" t="d">
+        <v>2016-08-17T00:00:00</v>
+      </c>
+      <c r="M16" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N16" s="4"/>
       <c r="O16" s="0" t="n">
-        <v>826</v>
+        <v>833</v>
       </c>
       <c r="P16" s="0" t="n">
         <v>0</v>
@@ -2596,7 +2589,7 @@
       <c r="S16" s="0"/>
       <c r="T16" s="0"/>
       <c r="U16" s="0" t="n">
-        <v>1214982</v>
+        <v>1212351</v>
       </c>
       <c r="V16" s="0" t="inlineStr">
         <is>
@@ -2610,7 +2603,7 @@
       </c>
       <c r="X16" s="0" t="inlineStr">
         <is>
-          <t>RIGHT SIDE PANEL PUSH IN 30"X24"</t>
+          <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
       <c r="Y16" s="0" t="inlineStr">
@@ -2631,11 +2624,11 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>36771</v>
+        <v>36744</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>SEGU4381141</t>
+          <t>SEGU4127522</t>
         </is>
       </c>
       <c r="C17" s="0" t="n">
@@ -2668,12 +2661,12 @@
       </c>
       <c r="I17" s="0" t="inlineStr">
         <is>
-          <t>HANJIN HOCHIMINH</t>
+          <t>KOTA BUANA0063/2016/1974</t>
         </is>
       </c>
       <c r="J17" s="0" t="inlineStr">
         <is>
-          <t>2016/2251</t>
+          <t>2016/2022</t>
         </is>
       </c>
       <c r="K17" s="0" t="inlineStr">
@@ -2681,17 +2674,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L17" s="0" t="d">
-        <v>2016-08-26T00:00:00</v>
-      </c>
-      <c r="M17" s="0" t="inlineStr">
-        <is>
-          <t>SWEEP</t>
-        </is>
-      </c>
-      <c r="N17" s="0"/>
+      <c r="L17" s="4" t="d">
+        <v>2016-08-17T00:00:00</v>
+      </c>
+      <c r="M17" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N17" s="4"/>
       <c r="O17" s="0" t="n">
-        <v>824</v>
+        <v>833</v>
       </c>
       <c r="P17" s="0" t="n">
         <v>0</v>
@@ -2705,21 +2698,21 @@
       <c r="S17" s="0"/>
       <c r="T17" s="0"/>
       <c r="U17" s="0" t="n">
-        <v>1215554</v>
+        <v>1212351</v>
       </c>
       <c r="V17" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W17" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+          <t>Roof panel-(Roof panel)</t>
         </is>
       </c>
       <c r="X17" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD SWEEPING,</t>
+          <t>ROOF PANEL HOLE 8"X6"</t>
         </is>
       </c>
       <c r="Y17" s="0" t="inlineStr">
@@ -2740,11 +2733,11 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>36772</v>
+        <v>36744</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>DRYU9653502</t>
+          <t>SEGU4127522</t>
         </is>
       </c>
       <c r="C18" s="0" t="n">
@@ -2777,30 +2770,30 @@
       </c>
       <c r="I18" s="0" t="inlineStr">
         <is>
-          <t>KOTA BINTANG</t>
+          <t>KOTA BUANA0063/2016/1974</t>
         </is>
       </c>
       <c r="J18" s="0" t="inlineStr">
         <is>
-          <t>2229/2016</t>
+          <t>2016/2022</t>
         </is>
       </c>
       <c r="K18" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L18" s="0" t="d">
-        <v>2016-08-27T00:00:00</v>
-      </c>
-      <c r="M18" s="0" t="inlineStr">
-        <is>
-          <t>SWEEP</t>
-        </is>
-      </c>
-      <c r="N18" s="0"/>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="L18" s="4" t="d">
+        <v>2016-08-17T00:00:00</v>
+      </c>
+      <c r="M18" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N18" s="4"/>
       <c r="O18" s="0" t="n">
-        <v>823</v>
+        <v>833</v>
       </c>
       <c r="P18" s="0" t="n">
         <v>0</v>
@@ -2814,21 +2807,21 @@
       <c r="S18" s="0"/>
       <c r="T18" s="0"/>
       <c r="U18" s="0" t="n">
-        <v>1215790</v>
+        <v>1212351</v>
       </c>
       <c r="V18" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>DOORS-(D)</t>
         </is>
       </c>
       <c r="W18" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
         </is>
       </c>
       <c r="X18" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD SWEEPING,</t>
+          <t>LEFT DOOR HANDLE BENT 1 PCS,</t>
         </is>
       </c>
       <c r="Y18" s="0" t="inlineStr">
@@ -2849,11 +2842,11 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>36773</v>
+        <v>36745</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>BMOU5902519</t>
+          <t>GLDU7585325</t>
         </is>
       </c>
       <c r="C19" s="0" t="n">
@@ -2886,12 +2879,12 @@
       </c>
       <c r="I19" s="0" t="inlineStr">
         <is>
-          <t>SINAR</t>
+          <t>KOTA BUANA0063/2016/1974</t>
         </is>
       </c>
       <c r="J19" s="0" t="inlineStr">
         <is>
-          <t>2016/2307</t>
+          <t>2016/2147</t>
         </is>
       </c>
       <c r="K19" s="0" t="inlineStr">
@@ -2899,17 +2892,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L19" s="0" t="d">
-        <v>2016-08-28T00:00:00</v>
-      </c>
-      <c r="M19" s="0" t="inlineStr">
+      <c r="L19" s="4" t="d">
+        <v>2016-08-17T00:00:00</v>
+      </c>
+      <c r="M19" s="4" t="inlineStr">
         <is>
           <t>CLEANED</t>
         </is>
       </c>
-      <c r="N19" s="0"/>
+      <c r="N19" s="4"/>
       <c r="O19" s="0" t="n">
-        <v>822</v>
+        <v>833</v>
       </c>
       <c r="P19" s="0" t="n">
         <v>0</v>
@@ -2923,7 +2916,7 @@
       <c r="S19" s="0"/>
       <c r="T19" s="0"/>
       <c r="U19" s="0" t="n">
-        <v>1215983</v>
+        <v>1212378</v>
       </c>
       <c r="V19" s="0" t="inlineStr">
         <is>
@@ -2937,7 +2930,7 @@
       </c>
       <c r="X19" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY MUD DUST</t>
+          <t>FLOOR BOARD DIRTY BY TYRE MARK ,</t>
         </is>
       </c>
       <c r="Y19" s="0" t="inlineStr">
@@ -2958,11 +2951,11 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>36774</v>
+        <v>36746</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>HJCU1655303</t>
+          <t>HJCU1431279</t>
         </is>
       </c>
       <c r="C20" s="0" t="n">
@@ -2995,12 +2988,12 @@
       </c>
       <c r="I20" s="0" t="inlineStr">
         <is>
-          <t>KOTA</t>
+          <t>X-PRESS NUPTSE.023.2016/2140</t>
         </is>
       </c>
       <c r="J20" s="0" t="inlineStr">
         <is>
-          <t>9/206/229</t>
+          <t>2016/2140</t>
         </is>
       </c>
       <c r="K20" s="0" t="inlineStr">
@@ -3008,17 +3001,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L20" s="0" t="d">
-        <v>2016-08-28T00:00:00</v>
-      </c>
-      <c r="M20" s="0" t="inlineStr">
-        <is>
-          <t>SWEEP</t>
-        </is>
-      </c>
-      <c r="N20" s="0"/>
+      <c r="L20" s="4" t="d">
+        <v>2016-08-17T00:00:00</v>
+      </c>
+      <c r="M20" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N20" s="4"/>
       <c r="O20" s="0" t="n">
-        <v>822</v>
+        <v>833</v>
       </c>
       <c r="P20" s="0" t="n">
         <v>0</v>
@@ -3032,7 +3025,7 @@
       <c r="S20" s="0"/>
       <c r="T20" s="0"/>
       <c r="U20" s="0" t="n">
-        <v>1215988</v>
+        <v>1212447</v>
       </c>
       <c r="V20" s="0" t="inlineStr">
         <is>
@@ -3046,7 +3039,7 @@
       </c>
       <c r="X20" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD TYRE MARK</t>
+          <t>FLOOR BOARD DIRTY</t>
         </is>
       </c>
       <c r="Y20" s="0" t="inlineStr">
@@ -3067,11 +3060,11 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>36774</v>
+        <v>36746</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>HJCU1655303</t>
+          <t>HJCU1431279</t>
         </is>
       </c>
       <c r="C21" s="0" t="n">
@@ -3104,12 +3097,12 @@
       </c>
       <c r="I21" s="0" t="inlineStr">
         <is>
-          <t>KOTA</t>
+          <t>X-PRESS NUPTSE.023.2016/2140</t>
         </is>
       </c>
       <c r="J21" s="0" t="inlineStr">
         <is>
-          <t>9/206/229</t>
+          <t>2016/2140</t>
         </is>
       </c>
       <c r="K21" s="0" t="inlineStr">
@@ -3117,17 +3110,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L21" s="0" t="d">
-        <v>2016-08-28T00:00:00</v>
-      </c>
-      <c r="M21" s="0" t="inlineStr">
-        <is>
-          <t>SWEEP</t>
-        </is>
-      </c>
-      <c r="N21" s="0"/>
+      <c r="L21" s="4" t="d">
+        <v>2016-08-17T00:00:00</v>
+      </c>
+      <c r="M21" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N21" s="4"/>
       <c r="O21" s="0" t="n">
-        <v>822</v>
+        <v>833</v>
       </c>
       <c r="P21" s="0" t="n">
         <v>0</v>
@@ -3141,7 +3134,7 @@
       <c r="S21" s="0"/>
       <c r="T21" s="0"/>
       <c r="U21" s="0" t="n">
-        <v>1215988</v>
+        <v>1212447</v>
       </c>
       <c r="V21" s="0" t="inlineStr">
         <is>
@@ -3176,11 +3169,11 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>36777</v>
+        <v>36747</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>HJCU1185703</t>
+          <t>HJCU1517238</t>
         </is>
       </c>
       <c r="C22" s="0" t="n">
@@ -3213,12 +3206,12 @@
       </c>
       <c r="I22" s="0" t="inlineStr">
         <is>
-          <t>HANJIN HOCHIMINH.377.2016/2251</t>
+          <t>ALTONIA</t>
         </is>
       </c>
       <c r="J22" s="0" t="inlineStr">
         <is>
-          <t>2016/2036</t>
+          <t>395/2016</t>
         </is>
       </c>
       <c r="K22" s="0" t="inlineStr">
@@ -3226,17 +3219,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L22" s="0" t="d">
-        <v>2016-08-29T00:00:00</v>
-      </c>
-      <c r="M22" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N22" s="0"/>
+      <c r="L22" s="4" t="d">
+        <v>2016-08-17T00:00:00</v>
+      </c>
+      <c r="M22" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N22" s="4"/>
       <c r="O22" s="0" t="n">
-        <v>821</v>
+        <v>833</v>
       </c>
       <c r="P22" s="0" t="n">
         <v>0</v>
@@ -3250,7 +3243,7 @@
       <c r="S22" s="0"/>
       <c r="T22" s="0"/>
       <c r="U22" s="0" t="n">
-        <v>1216208</v>
+        <v>1212462</v>
       </c>
       <c r="V22" s="0" t="inlineStr">
         <is>
@@ -3264,7 +3257,7 @@
       </c>
       <c r="X22" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY OIL STAIN</t>
+          <t>FLOOR BOARD DIRTY</t>
         </is>
       </c>
       <c r="Y22" s="0" t="inlineStr">
@@ -3285,11 +3278,11 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>36777</v>
+        <v>36747</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>HJCU1185703</t>
+          <t>HJCU1517238</t>
         </is>
       </c>
       <c r="C23" s="0" t="n">
@@ -3322,12 +3315,12 @@
       </c>
       <c r="I23" s="0" t="inlineStr">
         <is>
-          <t>HANJIN HOCHIMINH.377.2016/2251</t>
+          <t>ALTONIA</t>
         </is>
       </c>
       <c r="J23" s="0" t="inlineStr">
         <is>
-          <t>2016/2036</t>
+          <t>395/2016</t>
         </is>
       </c>
       <c r="K23" s="0" t="inlineStr">
@@ -3335,17 +3328,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L23" s="0" t="d">
-        <v>2016-08-29T00:00:00</v>
-      </c>
-      <c r="M23" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N23" s="0"/>
+      <c r="L23" s="4" t="d">
+        <v>2016-08-17T00:00:00</v>
+      </c>
+      <c r="M23" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N23" s="4"/>
       <c r="O23" s="0" t="n">
-        <v>821</v>
+        <v>833</v>
       </c>
       <c r="P23" s="0" t="n">
         <v>0</v>
@@ -3359,7 +3352,7 @@
       <c r="S23" s="0"/>
       <c r="T23" s="0"/>
       <c r="U23" s="0" t="n">
-        <v>1216208</v>
+        <v>1212462</v>
       </c>
       <c r="V23" s="0" t="inlineStr">
         <is>
@@ -3394,11 +3387,11 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>36778</v>
+        <v>36747</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>HJCU1457252</t>
+          <t>HJCU1517238</t>
         </is>
       </c>
       <c r="C24" s="0" t="n">
@@ -3431,12 +3424,12 @@
       </c>
       <c r="I24" s="0" t="inlineStr">
         <is>
-          <t>H RICKMERS</t>
+          <t>ALTONIA</t>
         </is>
       </c>
       <c r="J24" s="0" t="inlineStr">
         <is>
-          <t>2014/1185</t>
+          <t>395/2016</t>
         </is>
       </c>
       <c r="K24" s="0" t="inlineStr">
@@ -3444,17 +3437,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L24" s="0" t="d">
-        <v>2016-08-29T00:00:00</v>
-      </c>
-      <c r="M24" s="0" t="inlineStr">
+      <c r="L24" s="4" t="d">
+        <v>2016-08-17T00:00:00</v>
+      </c>
+      <c r="M24" s="4" t="inlineStr">
         <is>
           <t>DAMAGE</t>
         </is>
       </c>
-      <c r="N24" s="0"/>
+      <c r="N24" s="4"/>
       <c r="O24" s="0" t="n">
-        <v>821</v>
+        <v>833</v>
       </c>
       <c r="P24" s="0" t="n">
         <v>0</v>
@@ -3468,7 +3461,7 @@
       <c r="S24" s="0"/>
       <c r="T24" s="0"/>
       <c r="U24" s="0" t="n">
-        <v>1216209</v>
+        <v>1212462</v>
       </c>
       <c r="V24" s="0" t="inlineStr">
         <is>
@@ -3482,7 +3475,7 @@
       </c>
       <c r="X24" s="0" t="inlineStr">
         <is>
-          <t>INTERIOR PANEL DIRTY</t>
+          <t>ROOF PANEL CUT 6"</t>
         </is>
       </c>
       <c r="Y24" s="0" t="inlineStr">
@@ -3503,11 +3496,11 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>36778</v>
+        <v>36747</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>HJCU1457252</t>
+          <t>HJCU1517238</t>
         </is>
       </c>
       <c r="C25" s="0" t="n">
@@ -3540,12 +3533,12 @@
       </c>
       <c r="I25" s="0" t="inlineStr">
         <is>
-          <t>H RICKMERS</t>
+          <t>ALTONIA</t>
         </is>
       </c>
       <c r="J25" s="0" t="inlineStr">
         <is>
-          <t>2014/1185</t>
+          <t>395/2016</t>
         </is>
       </c>
       <c r="K25" s="0" t="inlineStr">
@@ -3553,17 +3546,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L25" s="0" t="d">
-        <v>2016-08-29T00:00:00</v>
-      </c>
-      <c r="M25" s="0" t="inlineStr">
+      <c r="L25" s="4" t="d">
+        <v>2016-08-17T00:00:00</v>
+      </c>
+      <c r="M25" s="4" t="inlineStr">
         <is>
           <t>DAMAGE</t>
         </is>
       </c>
-      <c r="N25" s="0"/>
+      <c r="N25" s="4"/>
       <c r="O25" s="0" t="n">
-        <v>821</v>
+        <v>833</v>
       </c>
       <c r="P25" s="0" t="n">
         <v>0</v>
@@ -3577,21 +3570,21 @@
       <c r="S25" s="0"/>
       <c r="T25" s="0"/>
       <c r="U25" s="0" t="n">
-        <v>1216209</v>
+        <v>1212462</v>
       </c>
       <c r="V25" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>RAILS-(RAILS)</t>
         </is>
       </c>
       <c r="W25" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Rear top rail cam keeper-(Rear top rail cam keeper)</t>
         </is>
       </c>
       <c r="X25" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN</t>
+          <t>FRONT  BOTTOM RAIL CRACKED 6'</t>
         </is>
       </c>
       <c r="Y25" s="0" t="inlineStr">
@@ -3612,11 +3605,11 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>36778</v>
+        <v>36748</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>HJCU1457252</t>
+          <t>UETU5024286</t>
         </is>
       </c>
       <c r="C26" s="0" t="n">
@@ -3649,12 +3642,12 @@
       </c>
       <c r="I26" s="0" t="inlineStr">
         <is>
-          <t>H RICKMERS</t>
+          <t>X-PRESS NUPTSE.023.2016/2140</t>
         </is>
       </c>
       <c r="J26" s="0" t="inlineStr">
         <is>
-          <t>2014/1185</t>
+          <t>2016/2140</t>
         </is>
       </c>
       <c r="K26" s="0" t="inlineStr">
@@ -3662,17 +3655,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L26" s="0" t="d">
-        <v>2016-08-29T00:00:00</v>
-      </c>
-      <c r="M26" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N26" s="0"/>
+      <c r="L26" s="4" t="d">
+        <v>2016-08-17T00:00:00</v>
+      </c>
+      <c r="M26" s="4" t="inlineStr">
+        <is>
+          <t>REPAIRED</t>
+        </is>
+      </c>
+      <c r="N26" s="4"/>
       <c r="O26" s="0" t="n">
-        <v>821</v>
+        <v>833</v>
       </c>
       <c r="P26" s="0" t="n">
         <v>0</v>
@@ -3686,21 +3679,21 @@
       <c r="S26" s="0"/>
       <c r="T26" s="0"/>
       <c r="U26" s="0" t="n">
-        <v>1216209</v>
+        <v>1212463</v>
       </c>
       <c r="V26" s="0" t="inlineStr">
         <is>
-          <t>DOORS-(D)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W26" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X26" s="0" t="inlineStr">
         <is>
-          <t>RIGHT DOOR HINGE PIN BROKEN 02 PCS( DOOR NOT LOCKED)</t>
+          <t>FLOOR BOARD DIRTY BY TYRE MARK ,</t>
         </is>
       </c>
       <c r="Y26" s="0" t="inlineStr">
@@ -3721,11 +3714,11 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>36779</v>
+        <v>36748</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>TEMU6383160</t>
+          <t>UETU5024286</t>
         </is>
       </c>
       <c r="C27" s="0" t="n">
@@ -3758,12 +3751,12 @@
       </c>
       <c r="I27" s="0" t="inlineStr">
         <is>
-          <t>HYUNDAI PROGRESS.016.2016/2230</t>
+          <t>X-PRESS NUPTSE.023.2016/2140</t>
         </is>
       </c>
       <c r="J27" s="0" t="inlineStr">
         <is>
-          <t>2016/2231</t>
+          <t>2016/2140</t>
         </is>
       </c>
       <c r="K27" s="0" t="inlineStr">
@@ -3771,17 +3764,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L27" s="0" t="d">
-        <v>2016-08-29T00:00:00</v>
-      </c>
-      <c r="M27" s="0" t="inlineStr">
-        <is>
-          <t>SWEEP</t>
-        </is>
-      </c>
-      <c r="N27" s="0"/>
+      <c r="L27" s="4" t="d">
+        <v>2016-08-17T00:00:00</v>
+      </c>
+      <c r="M27" s="4" t="inlineStr">
+        <is>
+          <t>REPAIRED</t>
+        </is>
+      </c>
+      <c r="N27" s="4"/>
       <c r="O27" s="0" t="n">
-        <v>821</v>
+        <v>833</v>
       </c>
       <c r="P27" s="0" t="n">
         <v>0</v>
@@ -3795,21 +3788,21 @@
       <c r="S27" s="0"/>
       <c r="T27" s="0"/>
       <c r="U27" s="0" t="n">
-        <v>1216211</v>
+        <v>1212463</v>
       </c>
       <c r="V27" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W27" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X27" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD SWEEPING,</t>
+          <t>ROOF PANEL I/R 8" X 4"</t>
         </is>
       </c>
       <c r="Y27" s="0" t="inlineStr">
@@ -3830,11 +3823,11 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>36787</v>
+        <v>36749</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>DRYU9141131</t>
+          <t>HJCU1357485</t>
         </is>
       </c>
       <c r="C28" s="0" t="n">
@@ -3867,30 +3860,30 @@
       </c>
       <c r="I28" s="0" t="inlineStr">
         <is>
-          <t>HANSA CALYPSO</t>
+          <t>KOTA BUANA</t>
         </is>
       </c>
       <c r="J28" s="0" t="inlineStr">
         <is>
-          <t>395/2016</t>
+          <t>2016/2138</t>
         </is>
       </c>
       <c r="K28" s="0" t="inlineStr">
         <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="L28" s="0" t="d">
-        <v>2016-08-30T00:00:00</v>
-      </c>
-      <c r="M28" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N28" s="0"/>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L28" s="4" t="d">
+        <v>2016-08-18T00:00:00</v>
+      </c>
+      <c r="M28" s="4" t="inlineStr">
+        <is>
+          <t>SWEEP</t>
+        </is>
+      </c>
+      <c r="N28" s="4"/>
       <c r="O28" s="0" t="n">
-        <v>820</v>
+        <v>832</v>
       </c>
       <c r="P28" s="0" t="n">
         <v>0</v>
@@ -3904,7 +3897,7 @@
       <c r="S28" s="0"/>
       <c r="T28" s="0"/>
       <c r="U28" s="0" t="n">
-        <v>1216579</v>
+        <v>1212724</v>
       </c>
       <c r="V28" s="0" t="inlineStr">
         <is>
@@ -3918,7 +3911,7 @@
       </c>
       <c r="X28" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY</t>
+          <t>FLOOR BOARD SWEEPING,</t>
         </is>
       </c>
       <c r="Y28" s="0" t="inlineStr">
@@ -3939,11 +3932,11 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>36787</v>
+        <v>36750</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>DRYU9141131</t>
+          <t>HJCU1650277</t>
         </is>
       </c>
       <c r="C29" s="0" t="n">
@@ -3976,30 +3969,30 @@
       </c>
       <c r="I29" s="0" t="inlineStr">
         <is>
-          <t>HANSA CALYPSO</t>
+          <t>KOTA BUANA</t>
         </is>
       </c>
       <c r="J29" s="0" t="inlineStr">
         <is>
-          <t>395/2016</t>
+          <t>2016/2138</t>
         </is>
       </c>
       <c r="K29" s="0" t="inlineStr">
         <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="L29" s="0" t="d">
-        <v>2016-08-30T00:00:00</v>
-      </c>
-      <c r="M29" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N29" s="0"/>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L29" s="4" t="d">
+        <v>2016-08-21T00:00:00</v>
+      </c>
+      <c r="M29" s="4" t="inlineStr">
+        <is>
+          <t>SWEEP</t>
+        </is>
+      </c>
+      <c r="N29" s="4"/>
       <c r="O29" s="0" t="n">
-        <v>820</v>
+        <v>829</v>
       </c>
       <c r="P29" s="0" t="n">
         <v>0</v>
@@ -4013,21 +4006,21 @@
       <c r="S29" s="0"/>
       <c r="T29" s="0"/>
       <c r="U29" s="0" t="n">
-        <v>1216579</v>
+        <v>1213650</v>
       </c>
       <c r="V29" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W29" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
         </is>
       </c>
       <c r="X29" s="0" t="inlineStr">
         <is>
-          <t>INTERIOR PANEL DIRTY</t>
+          <t>FLOOR BOARD SWEEPING,</t>
         </is>
       </c>
       <c r="Y29" s="0" t="inlineStr">
@@ -4048,15 +4041,15 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>36741</v>
+        <v>36751</v>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>RFCU5018760</t>
+          <t>DRYU4560536</t>
         </is>
       </c>
       <c r="C30" s="0" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D30" s="0" t="inlineStr">
         <is>
@@ -4085,30 +4078,30 @@
       </c>
       <c r="I30" s="0" t="inlineStr">
         <is>
-          <t>HIJAU SAMUDRA004/2016/1869</t>
+          <t>HANJIN HOCHIMINH</t>
         </is>
       </c>
       <c r="J30" s="0" t="inlineStr">
         <is>
-          <t>2016/2053</t>
+          <t>00/2016</t>
         </is>
       </c>
       <c r="K30" s="0" t="inlineStr">
         <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="L30" s="0" t="d">
-        <v>2016-08-15T00:00:00</v>
-      </c>
-      <c r="M30" s="0" t="inlineStr">
-        <is>
-          <t>SWEEP</t>
-        </is>
-      </c>
-      <c r="N30" s="0"/>
+          <t>SHIP</t>
+        </is>
+      </c>
+      <c r="L30" s="4" t="d">
+        <v>2016-08-21T00:00:00</v>
+      </c>
+      <c r="M30" s="4" t="inlineStr">
+        <is>
+          <t>REPAIRED</t>
+        </is>
+      </c>
+      <c r="N30" s="4"/>
       <c r="O30" s="0" t="n">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="P30" s="0" t="n">
         <v>0</v>
@@ -4122,7 +4115,7 @@
       <c r="S30" s="0"/>
       <c r="T30" s="0"/>
       <c r="U30" s="0" t="n">
-        <v>1211849</v>
+        <v>1213765</v>
       </c>
       <c r="V30" s="0" t="inlineStr">
         <is>
@@ -4136,7 +4129,7 @@
       </c>
       <c r="X30" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD SWEEPING </t>
+          <t>FLOOR BOARD DIRTY BY OIL SPOT</t>
         </is>
       </c>
       <c r="Y30" s="0" t="inlineStr">
@@ -4157,15 +4150,15 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
-        <v>36742</v>
+        <v>36751</v>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>HJCU1387941</t>
+          <t>DRYU4560536</t>
         </is>
       </c>
       <c r="C31" s="0" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D31" s="0" t="inlineStr">
         <is>
@@ -4194,30 +4187,30 @@
       </c>
       <c r="I31" s="0" t="inlineStr">
         <is>
-          <t>KOTA BUANA0063/2016/1974</t>
+          <t>HANJIN HOCHIMINH</t>
         </is>
       </c>
       <c r="J31" s="0" t="inlineStr">
         <is>
-          <t>2016/2147</t>
+          <t>00/2016</t>
         </is>
       </c>
       <c r="K31" s="0" t="inlineStr">
         <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="L31" s="0" t="d">
-        <v>2016-08-17T00:00:00</v>
-      </c>
-      <c r="M31" s="0" t="inlineStr">
+          <t>SHIP</t>
+        </is>
+      </c>
+      <c r="L31" s="4" t="d">
+        <v>2016-08-21T00:00:00</v>
+      </c>
+      <c r="M31" s="4" t="inlineStr">
         <is>
           <t>REPAIRED</t>
         </is>
       </c>
-      <c r="N31" s="0"/>
+      <c r="N31" s="4"/>
       <c r="O31" s="0" t="n">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="P31" s="0" t="n">
         <v>0</v>
@@ -4231,21 +4224,21 @@
       <c r="S31" s="0"/>
       <c r="T31" s="0"/>
       <c r="U31" s="0" t="n">
-        <v>1212307</v>
+        <v>1213765</v>
       </c>
       <c r="V31" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W31" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X31" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY</t>
+          <t>FRONT PANEL DENT 25" X 20" </t>
         </is>
       </c>
       <c r="Y31" s="0" t="inlineStr">
@@ -4266,11 +4259,11 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>36742</v>
+        <v>36757</v>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>HJCU1387941</t>
+          <t>BSIU9340014</t>
         </is>
       </c>
       <c r="C32" s="0" t="n">
@@ -4303,12 +4296,12 @@
       </c>
       <c r="I32" s="0" t="inlineStr">
         <is>
-          <t>KOTA BUANA0063/2016/1974</t>
+          <t>SINAR SANGIR0301/2016/2307</t>
         </is>
       </c>
       <c r="J32" s="0" t="inlineStr">
         <is>
-          <t>2016/2147</t>
+          <t>2016/2140</t>
         </is>
       </c>
       <c r="K32" s="0" t="inlineStr">
@@ -4316,17 +4309,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L32" s="0" t="d">
-        <v>2016-08-17T00:00:00</v>
-      </c>
-      <c r="M32" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
-      <c r="N32" s="0"/>
+      <c r="L32" s="4" t="d">
+        <v>2016-08-24T00:00:00</v>
+      </c>
+      <c r="M32" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N32" s="4"/>
       <c r="O32" s="0" t="n">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="P32" s="0" t="n">
         <v>0</v>
@@ -4340,46 +4333,22 @@
       <c r="S32" s="0"/>
       <c r="T32" s="0"/>
       <c r="U32" s="0" t="n">
-        <v>1212307</v>
-      </c>
-      <c r="V32" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
-      <c r="W32" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
-        </is>
-      </c>
-      <c r="X32" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD NAILS 2 PCS &amp; WOODEN 1 PCS,</t>
-        </is>
-      </c>
-      <c r="Y32" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z32" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA32" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+        <v>1214803</v>
+      </c>
+      <c r="V32" s="0"/>
+      <c r="W32" s="0"/>
+      <c r="X32" s="0"/>
+      <c r="Y32" s="0"/>
+      <c r="Z32" s="0"/>
+      <c r="AA32" s="0"/>
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
-        <v>36742</v>
+        <v>36758</v>
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>HJCU1387941</t>
+          <t>HJCU1367400</t>
         </is>
       </c>
       <c r="C33" s="0" t="n">
@@ -4412,12 +4381,12 @@
       </c>
       <c r="I33" s="0" t="inlineStr">
         <is>
-          <t>KOTA BUANA0063/2016/1974</t>
+          <t>X-PRESS NUPTSE.023.2016/2140</t>
         </is>
       </c>
       <c r="J33" s="0" t="inlineStr">
         <is>
-          <t>2016/2147</t>
+          <t>2016/2140</t>
         </is>
       </c>
       <c r="K33" s="0" t="inlineStr">
@@ -4425,17 +4394,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L33" s="0" t="d">
-        <v>2016-08-17T00:00:00</v>
-      </c>
-      <c r="M33" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
-      <c r="N33" s="0"/>
+      <c r="L33" s="4" t="d">
+        <v>2016-08-24T00:00:00</v>
+      </c>
+      <c r="M33" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N33" s="4"/>
       <c r="O33" s="0" t="n">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="P33" s="0" t="n">
         <v>0</v>
@@ -4449,46 +4418,22 @@
       <c r="S33" s="0"/>
       <c r="T33" s="0"/>
       <c r="U33" s="0" t="n">
-        <v>1212307</v>
-      </c>
-      <c r="V33" s="0" t="inlineStr">
-        <is>
-          <t>RAILS-(RAILS)</t>
-        </is>
-      </c>
-      <c r="W33" s="0" t="inlineStr">
-        <is>
-          <t>Front bottom rail-(Front bottom rail)</t>
-        </is>
-      </c>
-      <c r="X33" s="0" t="inlineStr">
-        <is>
-          <t>FRONT BOTTOM RAIL CRACKET 6" AT 2 PLASE,</t>
-        </is>
-      </c>
-      <c r="Y33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+        <v>1214880</v>
+      </c>
+      <c r="V33" s="0"/>
+      <c r="W33" s="0"/>
+      <c r="X33" s="0"/>
+      <c r="Y33" s="0"/>
+      <c r="Z33" s="0"/>
+      <c r="AA33" s="0"/>
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>36742</v>
+        <v>36759</v>
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>HJCU1387941</t>
+          <t>BMOU5891219</t>
         </is>
       </c>
       <c r="C34" s="0" t="n">
@@ -4521,12 +4466,12 @@
       </c>
       <c r="I34" s="0" t="inlineStr">
         <is>
-          <t>KOTA BUANA0063/2016/1974</t>
+          <t>SINAR SANGIR0301/2016/2307</t>
         </is>
       </c>
       <c r="J34" s="0" t="inlineStr">
         <is>
-          <t>2016/2147</t>
+          <t>2016/2140</t>
         </is>
       </c>
       <c r="K34" s="0" t="inlineStr">
@@ -4534,17 +4479,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L34" s="0" t="d">
-        <v>2016-08-17T00:00:00</v>
-      </c>
-      <c r="M34" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
-      <c r="N34" s="0"/>
+      <c r="L34" s="4" t="d">
+        <v>2016-08-24T00:00:00</v>
+      </c>
+      <c r="M34" s="4" t="inlineStr">
+        <is>
+          <t>SWEEP</t>
+        </is>
+      </c>
+      <c r="N34" s="4"/>
       <c r="O34" s="0" t="n">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="P34" s="0" t="n">
         <v>0</v>
@@ -4558,21 +4503,21 @@
       <c r="S34" s="0"/>
       <c r="T34" s="0"/>
       <c r="U34" s="0" t="n">
-        <v>1212307</v>
+        <v>1214882</v>
       </c>
       <c r="V34" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W34" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
         </is>
       </c>
       <c r="X34" s="0" t="inlineStr">
         <is>
-          <t>RIGHT SIDE PANEL CUT 2",</t>
+          <t>FLOOR BOARD SWEEPING,</t>
         </is>
       </c>
       <c r="Y34" s="0" t="inlineStr">
@@ -4593,11 +4538,11 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
-        <v>36743</v>
+        <v>36760</v>
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>TGHU9425066</t>
+          <t>HJCU1695815</t>
         </is>
       </c>
       <c r="C35" s="0" t="n">
@@ -4630,12 +4575,12 @@
       </c>
       <c r="I35" s="0" t="inlineStr">
         <is>
-          <t>KOTA BUANA0063/2016/1974</t>
+          <t>X-PRESS NUPTSE.023.2016/2140</t>
         </is>
       </c>
       <c r="J35" s="0" t="inlineStr">
         <is>
-          <t>2016/2118</t>
+          <t>2016/2140</t>
         </is>
       </c>
       <c r="K35" s="0" t="inlineStr">
@@ -4643,17 +4588,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L35" s="0" t="d">
-        <v>2016-08-17T00:00:00</v>
-      </c>
-      <c r="M35" s="0" t="inlineStr">
+      <c r="L35" s="4" t="d">
+        <v>2016-08-24T00:00:00</v>
+      </c>
+      <c r="M35" s="4" t="inlineStr">
         <is>
           <t>CLEANED</t>
         </is>
       </c>
-      <c r="N35" s="0"/>
+      <c r="N35" s="4"/>
       <c r="O35" s="0" t="n">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="P35" s="0" t="n">
         <v>0</v>
@@ -4667,7 +4612,7 @@
       <c r="S35" s="0"/>
       <c r="T35" s="0"/>
       <c r="U35" s="0" t="n">
-        <v>1212323</v>
+        <v>1214883</v>
       </c>
       <c r="V35" s="0" t="inlineStr">
         <is>
@@ -4681,7 +4626,7 @@
       </c>
       <c r="X35" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY OIL SPOT &amp; TYRE MARK</t>
+          <t>FLOOR BOARD DIRTY</t>
         </is>
       </c>
       <c r="Y35" s="0" t="inlineStr">
@@ -4702,11 +4647,11 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
-        <v>36743</v>
+        <v>36760</v>
       </c>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>TGHU9425066</t>
+          <t>HJCU1695815</t>
         </is>
       </c>
       <c r="C36" s="0" t="n">
@@ -4739,12 +4684,12 @@
       </c>
       <c r="I36" s="0" t="inlineStr">
         <is>
-          <t>KOTA BUANA0063/2016/1974</t>
+          <t>X-PRESS NUPTSE.023.2016/2140</t>
         </is>
       </c>
       <c r="J36" s="0" t="inlineStr">
         <is>
-          <t>2016/2118</t>
+          <t>2016/2140</t>
         </is>
       </c>
       <c r="K36" s="0" t="inlineStr">
@@ -4752,17 +4697,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L36" s="0" t="d">
-        <v>2016-08-17T00:00:00</v>
-      </c>
-      <c r="M36" s="0" t="inlineStr">
+      <c r="L36" s="4" t="d">
+        <v>2016-08-24T00:00:00</v>
+      </c>
+      <c r="M36" s="4" t="inlineStr">
         <is>
           <t>CLEANED</t>
         </is>
       </c>
-      <c r="N36" s="0"/>
+      <c r="N36" s="4"/>
       <c r="O36" s="0" t="n">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="P36" s="0" t="n">
         <v>0</v>
@@ -4776,7 +4721,7 @@
       <c r="S36" s="0"/>
       <c r="T36" s="0"/>
       <c r="U36" s="0" t="n">
-        <v>1212323</v>
+        <v>1214883</v>
       </c>
       <c r="V36" s="0" t="inlineStr">
         <is>
@@ -4785,12 +4730,12 @@
       </c>
       <c r="W36" s="0" t="inlineStr">
         <is>
-          <t>Left side panel-(Left side panel)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X36" s="0" t="inlineStr">
         <is>
-          <t>LEFT SIDE PANEL PATCH 1 PLASE,</t>
+          <t>INTERIOR PANEL INK</t>
         </is>
       </c>
       <c r="Y36" s="0" t="inlineStr">
@@ -4811,11 +4756,11 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
-        <v>36744</v>
+        <v>36762</v>
       </c>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>SEGU4127522</t>
+          <t>TEMU6711547</t>
         </is>
       </c>
       <c r="C37" s="0" t="n">
@@ -4848,12 +4793,12 @@
       </c>
       <c r="I37" s="0" t="inlineStr">
         <is>
-          <t>KOTA BUANA0063/2016/1974</t>
+          <t>SINAR SANGIR0301/2016/2307</t>
         </is>
       </c>
       <c r="J37" s="0" t="inlineStr">
         <is>
-          <t>2016/2022</t>
+          <t>2016/2140</t>
         </is>
       </c>
       <c r="K37" s="0" t="inlineStr">
@@ -4861,17 +4806,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L37" s="0" t="d">
-        <v>2016-08-17T00:00:00</v>
-      </c>
-      <c r="M37" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N37" s="0"/>
+      <c r="L37" s="4" t="d">
+        <v>2016-08-24T00:00:00</v>
+      </c>
+      <c r="M37" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N37" s="4"/>
       <c r="O37" s="0" t="n">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="P37" s="0" t="n">
         <v>0</v>
@@ -4885,7 +4830,7 @@
       <c r="S37" s="0"/>
       <c r="T37" s="0"/>
       <c r="U37" s="0" t="n">
-        <v>1212351</v>
+        <v>1214895</v>
       </c>
       <c r="V37" s="0" t="inlineStr">
         <is>
@@ -4899,7 +4844,7 @@
       </c>
       <c r="X37" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK &amp; OIL STAIN</t>
+          <t>FLOOR BOARD DIRTY</t>
         </is>
       </c>
       <c r="Y37" s="0" t="inlineStr">
@@ -4920,11 +4865,11 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
-        <v>36744</v>
+        <v>36762</v>
       </c>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>SEGU4127522</t>
+          <t>TEMU6711547</t>
         </is>
       </c>
       <c r="C38" s="0" t="n">
@@ -4957,12 +4902,12 @@
       </c>
       <c r="I38" s="0" t="inlineStr">
         <is>
-          <t>KOTA BUANA0063/2016/1974</t>
+          <t>SINAR SANGIR0301/2016/2307</t>
         </is>
       </c>
       <c r="J38" s="0" t="inlineStr">
         <is>
-          <t>2016/2022</t>
+          <t>2016/2140</t>
         </is>
       </c>
       <c r="K38" s="0" t="inlineStr">
@@ -4970,17 +4915,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L38" s="0" t="d">
-        <v>2016-08-17T00:00:00</v>
-      </c>
-      <c r="M38" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N38" s="0"/>
+      <c r="L38" s="4" t="d">
+        <v>2016-08-24T00:00:00</v>
+      </c>
+      <c r="M38" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N38" s="4"/>
       <c r="O38" s="0" t="n">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="P38" s="0" t="n">
         <v>0</v>
@@ -4994,7 +4939,7 @@
       <c r="S38" s="0"/>
       <c r="T38" s="0"/>
       <c r="U38" s="0" t="n">
-        <v>1212351</v>
+        <v>1214895</v>
       </c>
       <c r="V38" s="0" t="inlineStr">
         <is>
@@ -5029,11 +4974,11 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
-        <v>36744</v>
+        <v>36763</v>
       </c>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>SEGU4127522</t>
+          <t>TEMU6204500</t>
         </is>
       </c>
       <c r="C39" s="0" t="n">
@@ -5066,12 +5011,12 @@
       </c>
       <c r="I39" s="0" t="inlineStr">
         <is>
-          <t>KOTA BUANA0063/2016/1974</t>
+          <t>SINAR SANGIR0301/2016/2307</t>
         </is>
       </c>
       <c r="J39" s="0" t="inlineStr">
         <is>
-          <t>2016/2022</t>
+          <t>2016/2140</t>
         </is>
       </c>
       <c r="K39" s="0" t="inlineStr">
@@ -5079,17 +5024,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L39" s="0" t="d">
-        <v>2016-08-17T00:00:00</v>
-      </c>
-      <c r="M39" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N39" s="0"/>
+      <c r="L39" s="4" t="d">
+        <v>2016-08-24T00:00:00</v>
+      </c>
+      <c r="M39" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N39" s="4"/>
       <c r="O39" s="0" t="n">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="P39" s="0" t="n">
         <v>0</v>
@@ -5103,21 +5048,21 @@
       <c r="S39" s="0"/>
       <c r="T39" s="0"/>
       <c r="U39" s="0" t="n">
-        <v>1212351</v>
+        <v>1214896</v>
       </c>
       <c r="V39" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W39" s="0" t="inlineStr">
         <is>
-          <t>Roof panel-(Roof panel)</t>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
         </is>
       </c>
       <c r="X39" s="0" t="inlineStr">
         <is>
-          <t>ROOF PANEL HOLE 8"X6"</t>
+          <t>FLOOR BOARD DIRTY BY OIL SPOT</t>
         </is>
       </c>
       <c r="Y39" s="0" t="inlineStr">
@@ -5138,11 +5083,11 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
-        <v>36744</v>
+        <v>36764</v>
       </c>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t>SEGU4127522</t>
+          <t>RFCU5053776</t>
         </is>
       </c>
       <c r="C40" s="0" t="n">
@@ -5175,12 +5120,12 @@
       </c>
       <c r="I40" s="0" t="inlineStr">
         <is>
-          <t>KOTA BUANA0063/2016/1974</t>
+          <t>X-PRESS NUPTSE.023.2016/2140</t>
         </is>
       </c>
       <c r="J40" s="0" t="inlineStr">
         <is>
-          <t>2016/2022</t>
+          <t>2016/2140</t>
         </is>
       </c>
       <c r="K40" s="0" t="inlineStr">
@@ -5188,17 +5133,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L40" s="0" t="d">
-        <v>2016-08-17T00:00:00</v>
-      </c>
-      <c r="M40" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N40" s="0"/>
+      <c r="L40" s="4" t="d">
+        <v>2016-08-24T00:00:00</v>
+      </c>
+      <c r="M40" s="4" t="inlineStr">
+        <is>
+          <t>SWEEP</t>
+        </is>
+      </c>
+      <c r="N40" s="4"/>
       <c r="O40" s="0" t="n">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="P40" s="0" t="n">
         <v>0</v>
@@ -5212,21 +5157,21 @@
       <c r="S40" s="0"/>
       <c r="T40" s="0"/>
       <c r="U40" s="0" t="n">
-        <v>1212351</v>
+        <v>1214902</v>
       </c>
       <c r="V40" s="0" t="inlineStr">
         <is>
-          <t>DOORS-(D)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W40" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
         </is>
       </c>
       <c r="X40" s="0" t="inlineStr">
         <is>
-          <t>LEFT DOOR HANDLE BENT 1 PCS,</t>
+          <t>FLOOR BOARD SWEEPING,</t>
         </is>
       </c>
       <c r="Y40" s="0" t="inlineStr">
@@ -5247,11 +5192,11 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
-        <v>36745</v>
+        <v>36765</v>
       </c>
       <c r="B41" s="0" t="inlineStr">
         <is>
-          <t>GLDU7585325</t>
+          <t>BMOU5879656</t>
         </is>
       </c>
       <c r="C41" s="0" t="n">
@@ -5284,12 +5229,12 @@
       </c>
       <c r="I41" s="0" t="inlineStr">
         <is>
-          <t>KOTA BUANA0063/2016/1974</t>
+          <t>SINAR SANGIR0301/2016/2307</t>
         </is>
       </c>
       <c r="J41" s="0" t="inlineStr">
         <is>
-          <t>2016/2147</t>
+          <t>2016/2140</t>
         </is>
       </c>
       <c r="K41" s="0" t="inlineStr">
@@ -5297,17 +5242,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L41" s="0" t="d">
-        <v>2016-08-17T00:00:00</v>
-      </c>
-      <c r="M41" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N41" s="0"/>
+      <c r="L41" s="4" t="d">
+        <v>2016-08-24T00:00:00</v>
+      </c>
+      <c r="M41" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N41" s="4"/>
       <c r="O41" s="0" t="n">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="P41" s="0" t="n">
         <v>0</v>
@@ -5321,7 +5266,7 @@
       <c r="S41" s="0"/>
       <c r="T41" s="0"/>
       <c r="U41" s="0" t="n">
-        <v>1212378</v>
+        <v>1214915</v>
       </c>
       <c r="V41" s="0" t="inlineStr">
         <is>
@@ -5330,12 +5275,12 @@
       </c>
       <c r="W41" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
         </is>
       </c>
       <c r="X41" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY TYRE MARK ,</t>
+          <t>FLOOR BOARD DIRTY BY MUD DUST,</t>
         </is>
       </c>
       <c r="Y41" s="0" t="inlineStr">
@@ -5356,11 +5301,11 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
-        <v>36746</v>
+        <v>36766</v>
       </c>
       <c r="B42" s="0" t="inlineStr">
         <is>
-          <t>HJCU1431279</t>
+          <t>HJCU1701841</t>
         </is>
       </c>
       <c r="C42" s="0" t="n">
@@ -5393,7 +5338,7 @@
       </c>
       <c r="I42" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS NUPTSE.023.2016/2140</t>
+          <t>SINAR SANGIR0301/2016/2307</t>
         </is>
       </c>
       <c r="J42" s="0" t="inlineStr">
@@ -5406,17 +5351,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L42" s="0" t="d">
-        <v>2016-08-17T00:00:00</v>
-      </c>
-      <c r="M42" s="0" t="inlineStr">
+      <c r="L42" s="4" t="d">
+        <v>2016-08-24T00:00:00</v>
+      </c>
+      <c r="M42" s="4" t="inlineStr">
         <is>
           <t>CLEANED</t>
         </is>
       </c>
-      <c r="N42" s="0"/>
+      <c r="N42" s="4"/>
       <c r="O42" s="0" t="n">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="P42" s="0" t="n">
         <v>0</v>
@@ -5430,7 +5375,7 @@
       <c r="S42" s="0"/>
       <c r="T42" s="0"/>
       <c r="U42" s="0" t="n">
-        <v>1212447</v>
+        <v>1214945</v>
       </c>
       <c r="V42" s="0" t="inlineStr">
         <is>
@@ -5439,7 +5384,7 @@
       </c>
       <c r="W42" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
         </is>
       </c>
       <c r="X42" s="0" t="inlineStr">
@@ -5465,11 +5410,11 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="n">
-        <v>36746</v>
+        <v>36768</v>
       </c>
       <c r="B43" s="0" t="inlineStr">
         <is>
-          <t>HJCU1431279</t>
+          <t>BMOU4526459</t>
         </is>
       </c>
       <c r="C43" s="0" t="n">
@@ -5502,7 +5447,7 @@
       </c>
       <c r="I43" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS NUPTSE.023.2016/2140</t>
+          <t>SINAR SANGIR0301/2016/2307</t>
         </is>
       </c>
       <c r="J43" s="0" t="inlineStr">
@@ -5515,17 +5460,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L43" s="0" t="d">
-        <v>2016-08-17T00:00:00</v>
-      </c>
-      <c r="M43" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N43" s="0"/>
+      <c r="L43" s="4" t="d">
+        <v>2016-08-24T00:00:00</v>
+      </c>
+      <c r="M43" s="4" t="inlineStr">
+        <is>
+          <t>REPAIRED</t>
+        </is>
+      </c>
+      <c r="N43" s="4"/>
       <c r="O43" s="0" t="n">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="P43" s="0" t="n">
         <v>0</v>
@@ -5539,21 +5484,21 @@
       <c r="S43" s="0"/>
       <c r="T43" s="0"/>
       <c r="U43" s="0" t="n">
-        <v>1212447</v>
+        <v>1214978</v>
       </c>
       <c r="V43" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W43" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
         </is>
       </c>
       <c r="X43" s="0" t="inlineStr">
         <is>
-          <t>INTERIOR PANEL INK</t>
+          <t>FLOOR BOARD DIRTY BY OIL STAIN</t>
         </is>
       </c>
       <c r="Y43" s="0" t="inlineStr">
@@ -5574,11 +5519,11 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
-        <v>36747</v>
+        <v>36768</v>
       </c>
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>HJCU1517238</t>
+          <t>BMOU4526459</t>
         </is>
       </c>
       <c r="C44" s="0" t="n">
@@ -5611,12 +5556,12 @@
       </c>
       <c r="I44" s="0" t="inlineStr">
         <is>
-          <t>ALTONIA</t>
+          <t>SINAR SANGIR0301/2016/2307</t>
         </is>
       </c>
       <c r="J44" s="0" t="inlineStr">
         <is>
-          <t>395/2016</t>
+          <t>2016/2140</t>
         </is>
       </c>
       <c r="K44" s="0" t="inlineStr">
@@ -5624,17 +5569,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L44" s="0" t="d">
-        <v>2016-08-17T00:00:00</v>
-      </c>
-      <c r="M44" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N44" s="0"/>
+      <c r="L44" s="4" t="d">
+        <v>2016-08-24T00:00:00</v>
+      </c>
+      <c r="M44" s="4" t="inlineStr">
+        <is>
+          <t>REPAIRED</t>
+        </is>
+      </c>
+      <c r="N44" s="4"/>
       <c r="O44" s="0" t="n">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="P44" s="0" t="n">
         <v>0</v>
@@ -5648,21 +5593,21 @@
       <c r="S44" s="0"/>
       <c r="T44" s="0"/>
       <c r="U44" s="0" t="n">
-        <v>1212462</v>
+        <v>1214978</v>
       </c>
       <c r="V44" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>DOORS-(D)</t>
         </is>
       </c>
       <c r="W44" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
         </is>
       </c>
       <c r="X44" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY</t>
+          <t>LEFT DOOR BOTTOM RAIL BENT 12" (DOOR UN LOCK)</t>
         </is>
       </c>
       <c r="Y44" s="0" t="inlineStr">
@@ -5683,11 +5628,11 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">
-        <v>36747</v>
+        <v>36769</v>
       </c>
       <c r="B45" s="0" t="inlineStr">
         <is>
-          <t>HJCU1517238</t>
+          <t>DFSU7594211</t>
         </is>
       </c>
       <c r="C45" s="0" t="n">
@@ -5720,12 +5665,12 @@
       </c>
       <c r="I45" s="0" t="inlineStr">
         <is>
-          <t>ALTONIA</t>
+          <t>SINAR SANGIR0301/2016/2307</t>
         </is>
       </c>
       <c r="J45" s="0" t="inlineStr">
         <is>
-          <t>395/2016</t>
+          <t>2016/2140</t>
         </is>
       </c>
       <c r="K45" s="0" t="inlineStr">
@@ -5733,17 +5678,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L45" s="0" t="d">
-        <v>2016-08-17T00:00:00</v>
-      </c>
-      <c r="M45" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N45" s="0"/>
+      <c r="L45" s="4" t="d">
+        <v>2016-08-24T00:00:00</v>
+      </c>
+      <c r="M45" s="4" t="inlineStr">
+        <is>
+          <t>REPAIRED</t>
+        </is>
+      </c>
+      <c r="N45" s="4"/>
       <c r="O45" s="0" t="n">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="P45" s="0" t="n">
         <v>0</v>
@@ -5757,21 +5702,21 @@
       <c r="S45" s="0"/>
       <c r="T45" s="0"/>
       <c r="U45" s="0" t="n">
-        <v>1212462</v>
+        <v>1214982</v>
       </c>
       <c r="V45" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W45" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
         </is>
       </c>
       <c r="X45" s="0" t="inlineStr">
         <is>
-          <t>INTERIOR PANEL DIRTY</t>
+          <t>FLOOR BOARD DIRTY</t>
         </is>
       </c>
       <c r="Y45" s="0" t="inlineStr">
@@ -5792,11 +5737,11 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
-        <v>36747</v>
+        <v>36769</v>
       </c>
       <c r="B46" s="0" t="inlineStr">
         <is>
-          <t>HJCU1517238</t>
+          <t>DFSU7594211</t>
         </is>
       </c>
       <c r="C46" s="0" t="n">
@@ -5829,12 +5774,12 @@
       </c>
       <c r="I46" s="0" t="inlineStr">
         <is>
-          <t>ALTONIA</t>
+          <t>SINAR SANGIR0301/2016/2307</t>
         </is>
       </c>
       <c r="J46" s="0" t="inlineStr">
         <is>
-          <t>395/2016</t>
+          <t>2016/2140</t>
         </is>
       </c>
       <c r="K46" s="0" t="inlineStr">
@@ -5842,17 +5787,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L46" s="0" t="d">
-        <v>2016-08-17T00:00:00</v>
-      </c>
-      <c r="M46" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N46" s="0"/>
+      <c r="L46" s="4" t="d">
+        <v>2016-08-24T00:00:00</v>
+      </c>
+      <c r="M46" s="4" t="inlineStr">
+        <is>
+          <t>REPAIRED</t>
+        </is>
+      </c>
+      <c r="N46" s="4"/>
       <c r="O46" s="0" t="n">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="P46" s="0" t="n">
         <v>0</v>
@@ -5866,7 +5811,7 @@
       <c r="S46" s="0"/>
       <c r="T46" s="0"/>
       <c r="U46" s="0" t="n">
-        <v>1212462</v>
+        <v>1214982</v>
       </c>
       <c r="V46" s="0" t="inlineStr">
         <is>
@@ -5880,7 +5825,7 @@
       </c>
       <c r="X46" s="0" t="inlineStr">
         <is>
-          <t>ROOF PANEL CUT 6"</t>
+          <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
       <c r="Y46" s="0" t="inlineStr">
@@ -5901,11 +5846,11 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="n">
-        <v>36747</v>
+        <v>36769</v>
       </c>
       <c r="B47" s="0" t="inlineStr">
         <is>
-          <t>HJCU1517238</t>
+          <t>DFSU7594211</t>
         </is>
       </c>
       <c r="C47" s="0" t="n">
@@ -5938,12 +5883,12 @@
       </c>
       <c r="I47" s="0" t="inlineStr">
         <is>
-          <t>ALTONIA</t>
+          <t>SINAR SANGIR0301/2016/2307</t>
         </is>
       </c>
       <c r="J47" s="0" t="inlineStr">
         <is>
-          <t>395/2016</t>
+          <t>2016/2140</t>
         </is>
       </c>
       <c r="K47" s="0" t="inlineStr">
@@ -5951,17 +5896,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L47" s="0" t="d">
-        <v>2016-08-17T00:00:00</v>
-      </c>
-      <c r="M47" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N47" s="0"/>
+      <c r="L47" s="4" t="d">
+        <v>2016-08-24T00:00:00</v>
+      </c>
+      <c r="M47" s="4" t="inlineStr">
+        <is>
+          <t>REPAIRED</t>
+        </is>
+      </c>
+      <c r="N47" s="4"/>
       <c r="O47" s="0" t="n">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="P47" s="0" t="n">
         <v>0</v>
@@ -5975,21 +5920,21 @@
       <c r="S47" s="0"/>
       <c r="T47" s="0"/>
       <c r="U47" s="0" t="n">
-        <v>1212462</v>
+        <v>1214982</v>
       </c>
       <c r="V47" s="0" t="inlineStr">
         <is>
-          <t>RAILS-(RAILS)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W47" s="0" t="inlineStr">
         <is>
-          <t>Rear top rail cam keeper-(Rear top rail cam keeper)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X47" s="0" t="inlineStr">
         <is>
-          <t>FRONT  BOTTOM RAIL CRACKED 6'</t>
+          <t>RIGHT SIDE PANEL PUSH IN 30"X24"</t>
         </is>
       </c>
       <c r="Y47" s="0" t="inlineStr">
@@ -6010,11 +5955,11 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
-        <v>36748</v>
+        <v>36771</v>
       </c>
       <c r="B48" s="0" t="inlineStr">
         <is>
-          <t>UETU5024286</t>
+          <t>SEGU4381141</t>
         </is>
       </c>
       <c r="C48" s="0" t="n">
@@ -6047,12 +5992,12 @@
       </c>
       <c r="I48" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS NUPTSE.023.2016/2140</t>
+          <t>HANJIN HOCHIMINH</t>
         </is>
       </c>
       <c r="J48" s="0" t="inlineStr">
         <is>
-          <t>2016/2140</t>
+          <t>2016/2251</t>
         </is>
       </c>
       <c r="K48" s="0" t="inlineStr">
@@ -6060,17 +6005,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L48" s="0" t="d">
-        <v>2016-08-17T00:00:00</v>
-      </c>
-      <c r="M48" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
-      <c r="N48" s="0"/>
+      <c r="L48" s="4" t="d">
+        <v>2016-08-26T00:00:00</v>
+      </c>
+      <c r="M48" s="4" t="inlineStr">
+        <is>
+          <t>SWEEP</t>
+        </is>
+      </c>
+      <c r="N48" s="4"/>
       <c r="O48" s="0" t="n">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="P48" s="0" t="n">
         <v>0</v>
@@ -6084,7 +6029,7 @@
       <c r="S48" s="0"/>
       <c r="T48" s="0"/>
       <c r="U48" s="0" t="n">
-        <v>1212463</v>
+        <v>1215554</v>
       </c>
       <c r="V48" s="0" t="inlineStr">
         <is>
@@ -6093,12 +6038,12 @@
       </c>
       <c r="W48" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
         </is>
       </c>
       <c r="X48" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY TYRE MARK ,</t>
+          <t>FLOOR BOARD SWEEPING,</t>
         </is>
       </c>
       <c r="Y48" s="0" t="inlineStr">
@@ -6119,11 +6064,11 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="n">
-        <v>36748</v>
+        <v>36772</v>
       </c>
       <c r="B49" s="0" t="inlineStr">
         <is>
-          <t>UETU5024286</t>
+          <t>DRYU9653502</t>
         </is>
       </c>
       <c r="C49" s="0" t="n">
@@ -6156,30 +6101,30 @@
       </c>
       <c r="I49" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS NUPTSE.023.2016/2140</t>
+          <t>KOTA BINTANG</t>
         </is>
       </c>
       <c r="J49" s="0" t="inlineStr">
         <is>
-          <t>2016/2140</t>
+          <t>2229/2016</t>
         </is>
       </c>
       <c r="K49" s="0" t="inlineStr">
         <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="L49" s="0" t="d">
-        <v>2016-08-17T00:00:00</v>
-      </c>
-      <c r="M49" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
-      <c r="N49" s="0"/>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L49" s="4" t="d">
+        <v>2016-08-27T00:00:00</v>
+      </c>
+      <c r="M49" s="4" t="inlineStr">
+        <is>
+          <t>SWEEP</t>
+        </is>
+      </c>
+      <c r="N49" s="4"/>
       <c r="O49" s="0" t="n">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="P49" s="0" t="n">
         <v>0</v>
@@ -6193,21 +6138,21 @@
       <c r="S49" s="0"/>
       <c r="T49" s="0"/>
       <c r="U49" s="0" t="n">
-        <v>1212463</v>
+        <v>1215790</v>
       </c>
       <c r="V49" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W49" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
         </is>
       </c>
       <c r="X49" s="0" t="inlineStr">
         <is>
-          <t>ROOF PANEL I/R 8" X 4"</t>
+          <t>FLOOR BOARD SWEEPING,</t>
         </is>
       </c>
       <c r="Y49" s="0" t="inlineStr">
@@ -6228,11 +6173,11 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="n">
-        <v>36749</v>
+        <v>36773</v>
       </c>
       <c r="B50" s="0" t="inlineStr">
         <is>
-          <t>HJCU1357485</t>
+          <t>BMOU5902519</t>
         </is>
       </c>
       <c r="C50" s="0" t="n">
@@ -6265,30 +6210,30 @@
       </c>
       <c r="I50" s="0" t="inlineStr">
         <is>
-          <t>KOTA BUANA</t>
+          <t>SINAR</t>
         </is>
       </c>
       <c r="J50" s="0" t="inlineStr">
         <is>
-          <t>2016/2138</t>
+          <t>2016/2307</t>
         </is>
       </c>
       <c r="K50" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L50" s="0" t="d">
-        <v>2016-08-18T00:00:00</v>
-      </c>
-      <c r="M50" s="0" t="inlineStr">
-        <is>
-          <t>SWEEP</t>
-        </is>
-      </c>
-      <c r="N50" s="0"/>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="L50" s="4" t="d">
+        <v>2016-08-28T00:00:00</v>
+      </c>
+      <c r="M50" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N50" s="4"/>
       <c r="O50" s="0" t="n">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="P50" s="0" t="n">
         <v>0</v>
@@ -6302,7 +6247,7 @@
       <c r="S50" s="0"/>
       <c r="T50" s="0"/>
       <c r="U50" s="0" t="n">
-        <v>1212724</v>
+        <v>1215983</v>
       </c>
       <c r="V50" s="0" t="inlineStr">
         <is>
@@ -6311,12 +6256,12 @@
       </c>
       <c r="W50" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X50" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD SWEEPING,</t>
+          <t>FLOOR BOARD DIRTY BY MUD DUST</t>
         </is>
       </c>
       <c r="Y50" s="0" t="inlineStr">
@@ -6337,11 +6282,11 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="n">
-        <v>36750</v>
+        <v>36774</v>
       </c>
       <c r="B51" s="0" t="inlineStr">
         <is>
-          <t>HJCU1650277</t>
+          <t>HJCU1655303</t>
         </is>
       </c>
       <c r="C51" s="0" t="n">
@@ -6374,30 +6319,30 @@
       </c>
       <c r="I51" s="0" t="inlineStr">
         <is>
-          <t>KOTA BUANA</t>
+          <t>KOTA</t>
         </is>
       </c>
       <c r="J51" s="0" t="inlineStr">
         <is>
-          <t>2016/2138</t>
+          <t>9/206/229</t>
         </is>
       </c>
       <c r="K51" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L51" s="0" t="d">
-        <v>2016-08-21T00:00:00</v>
-      </c>
-      <c r="M51" s="0" t="inlineStr">
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="L51" s="4" t="d">
+        <v>2016-08-28T00:00:00</v>
+      </c>
+      <c r="M51" s="4" t="inlineStr">
         <is>
           <t>SWEEP</t>
         </is>
       </c>
-      <c r="N51" s="0"/>
+      <c r="N51" s="4"/>
       <c r="O51" s="0" t="n">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="P51" s="0" t="n">
         <v>0</v>
@@ -6411,7 +6356,7 @@
       <c r="S51" s="0"/>
       <c r="T51" s="0"/>
       <c r="U51" s="0" t="n">
-        <v>1213650</v>
+        <v>1215988</v>
       </c>
       <c r="V51" s="0" t="inlineStr">
         <is>
@@ -6420,12 +6365,12 @@
       </c>
       <c r="W51" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X51" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD SWEEPING,</t>
+          <t>FLOOR BOARD TYRE MARK</t>
         </is>
       </c>
       <c r="Y51" s="0" t="inlineStr">
@@ -6446,15 +6391,15 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="n">
-        <v>36751</v>
+        <v>36774</v>
       </c>
       <c r="B52" s="0" t="inlineStr">
         <is>
-          <t>DRYU4560536</t>
+          <t>HJCU1655303</t>
         </is>
       </c>
       <c r="C52" s="0" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D52" s="0" t="inlineStr">
         <is>
@@ -6483,30 +6428,30 @@
       </c>
       <c r="I52" s="0" t="inlineStr">
         <is>
-          <t>HANJIN HOCHIMINH</t>
+          <t>KOTA</t>
         </is>
       </c>
       <c r="J52" s="0" t="inlineStr">
         <is>
-          <t>00/2016</t>
+          <t>9/206/229</t>
         </is>
       </c>
       <c r="K52" s="0" t="inlineStr">
         <is>
-          <t>SHIP</t>
-        </is>
-      </c>
-      <c r="L52" s="0" t="d">
-        <v>2016-08-21T00:00:00</v>
-      </c>
-      <c r="M52" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
-      <c r="N52" s="0"/>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="L52" s="4" t="d">
+        <v>2016-08-28T00:00:00</v>
+      </c>
+      <c r="M52" s="4" t="inlineStr">
+        <is>
+          <t>SWEEP</t>
+        </is>
+      </c>
+      <c r="N52" s="4"/>
       <c r="O52" s="0" t="n">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="P52" s="0" t="n">
         <v>0</v>
@@ -6520,21 +6465,21 @@
       <c r="S52" s="0"/>
       <c r="T52" s="0"/>
       <c r="U52" s="0" t="n">
-        <v>1213765</v>
+        <v>1215988</v>
       </c>
       <c r="V52" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W52" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X52" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY OIL SPOT</t>
+          <t>INTERIOR PANEL INK</t>
         </is>
       </c>
       <c r="Y52" s="0" t="inlineStr">
@@ -6555,15 +6500,15 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="n">
-        <v>36751</v>
+        <v>36777</v>
       </c>
       <c r="B53" s="0" t="inlineStr">
         <is>
-          <t>DRYU4560536</t>
+          <t>HJCU1185703</t>
         </is>
       </c>
       <c r="C53" s="0" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D53" s="0" t="inlineStr">
         <is>
@@ -6592,30 +6537,30 @@
       </c>
       <c r="I53" s="0" t="inlineStr">
         <is>
-          <t>HANJIN HOCHIMINH</t>
+          <t>HANJIN HOCHIMINH.377.2016/2251</t>
         </is>
       </c>
       <c r="J53" s="0" t="inlineStr">
         <is>
-          <t>00/2016</t>
+          <t>2016/2036</t>
         </is>
       </c>
       <c r="K53" s="0" t="inlineStr">
         <is>
-          <t>SHIP</t>
-        </is>
-      </c>
-      <c r="L53" s="0" t="d">
-        <v>2016-08-21T00:00:00</v>
-      </c>
-      <c r="M53" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
-      <c r="N53" s="0"/>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="L53" s="4" t="d">
+        <v>2016-08-29T00:00:00</v>
+      </c>
+      <c r="M53" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N53" s="4"/>
       <c r="O53" s="0" t="n">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="P53" s="0" t="n">
         <v>0</v>
@@ -6629,21 +6574,21 @@
       <c r="S53" s="0"/>
       <c r="T53" s="0"/>
       <c r="U53" s="0" t="n">
-        <v>1213765</v>
+        <v>1216208</v>
       </c>
       <c r="V53" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W53" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X53" s="0" t="inlineStr">
         <is>
-          <t>FRONT PANEL DENT 25" X 20" </t>
+          <t>FLOOR BOARD DIRTY BY OIL STAIN</t>
         </is>
       </c>
       <c r="Y53" s="0" t="inlineStr">
@@ -6664,11 +6609,11 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="n">
-        <v>36757</v>
+        <v>36777</v>
       </c>
       <c r="B54" s="0" t="inlineStr">
         <is>
-          <t>BSIU9340014</t>
+          <t>HJCU1185703</t>
         </is>
       </c>
       <c r="C54" s="0" t="n">
@@ -6701,12 +6646,12 @@
       </c>
       <c r="I54" s="0" t="inlineStr">
         <is>
-          <t>SINAR SANGIR0301/2016/2307</t>
+          <t>HANJIN HOCHIMINH.377.2016/2251</t>
         </is>
       </c>
       <c r="J54" s="0" t="inlineStr">
         <is>
-          <t>2016/2140</t>
+          <t>2016/2036</t>
         </is>
       </c>
       <c r="K54" s="0" t="inlineStr">
@@ -6714,17 +6659,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L54" s="0" t="d">
-        <v>2016-08-24T00:00:00</v>
-      </c>
-      <c r="M54" s="0" t="inlineStr">
+      <c r="L54" s="4" t="d">
+        <v>2016-08-29T00:00:00</v>
+      </c>
+      <c r="M54" s="4" t="inlineStr">
         <is>
           <t>CLEANED</t>
         </is>
       </c>
-      <c r="N54" s="0"/>
+      <c r="N54" s="4"/>
       <c r="O54" s="0" t="n">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="P54" s="0" t="n">
         <v>0</v>
@@ -6738,22 +6683,46 @@
       <c r="S54" s="0"/>
       <c r="T54" s="0"/>
       <c r="U54" s="0" t="n">
-        <v>1214803</v>
-      </c>
-      <c r="V54" s="0"/>
-      <c r="W54" s="0"/>
-      <c r="X54" s="0"/>
-      <c r="Y54" s="0"/>
-      <c r="Z54" s="0"/>
-      <c r="AA54" s="0"/>
+        <v>1216208</v>
+      </c>
+      <c r="V54" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="W54" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="X54" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Y54" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z54" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA54" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="n">
-        <v>36758</v>
+        <v>36778</v>
       </c>
       <c r="B55" s="0" t="inlineStr">
         <is>
-          <t>HJCU1367400</t>
+          <t>HJCU1457252</t>
         </is>
       </c>
       <c r="C55" s="0" t="n">
@@ -6786,12 +6755,12 @@
       </c>
       <c r="I55" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS NUPTSE.023.2016/2140</t>
+          <t>H RICKMERS</t>
         </is>
       </c>
       <c r="J55" s="0" t="inlineStr">
         <is>
-          <t>2016/2140</t>
+          <t>2014/1185</t>
         </is>
       </c>
       <c r="K55" s="0" t="inlineStr">
@@ -6799,17 +6768,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L55" s="0" t="d">
-        <v>2016-08-24T00:00:00</v>
-      </c>
-      <c r="M55" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N55" s="0"/>
+      <c r="L55" s="4" t="d">
+        <v>2016-08-29T00:00:00</v>
+      </c>
+      <c r="M55" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N55" s="4"/>
       <c r="O55" s="0" t="n">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="P55" s="0" t="n">
         <v>0</v>
@@ -6823,22 +6792,46 @@
       <c r="S55" s="0"/>
       <c r="T55" s="0"/>
       <c r="U55" s="0" t="n">
-        <v>1214880</v>
-      </c>
-      <c r="V55" s="0"/>
-      <c r="W55" s="0"/>
-      <c r="X55" s="0"/>
-      <c r="Y55" s="0"/>
-      <c r="Z55" s="0"/>
-      <c r="AA55" s="0"/>
+        <v>1216209</v>
+      </c>
+      <c r="V55" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="W55" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="X55" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Y55" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z55" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA55" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="n">
-        <v>36759</v>
+        <v>36778</v>
       </c>
       <c r="B56" s="0" t="inlineStr">
         <is>
-          <t>BMOU5891219</t>
+          <t>HJCU1457252</t>
         </is>
       </c>
       <c r="C56" s="0" t="n">
@@ -6871,12 +6864,12 @@
       </c>
       <c r="I56" s="0" t="inlineStr">
         <is>
-          <t>SINAR SANGIR0301/2016/2307</t>
+          <t>H RICKMERS</t>
         </is>
       </c>
       <c r="J56" s="0" t="inlineStr">
         <is>
-          <t>2016/2140</t>
+          <t>2014/1185</t>
         </is>
       </c>
       <c r="K56" s="0" t="inlineStr">
@@ -6884,17 +6877,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L56" s="0" t="d">
-        <v>2016-08-24T00:00:00</v>
-      </c>
-      <c r="M56" s="0" t="inlineStr">
-        <is>
-          <t>SWEEP</t>
-        </is>
-      </c>
-      <c r="N56" s="0"/>
+      <c r="L56" s="4" t="d">
+        <v>2016-08-29T00:00:00</v>
+      </c>
+      <c r="M56" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N56" s="4"/>
       <c r="O56" s="0" t="n">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="P56" s="0" t="n">
         <v>0</v>
@@ -6908,7 +6901,7 @@
       <c r="S56" s="0"/>
       <c r="T56" s="0"/>
       <c r="U56" s="0" t="n">
-        <v>1214882</v>
+        <v>1216209</v>
       </c>
       <c r="V56" s="0" t="inlineStr">
         <is>
@@ -6917,12 +6910,12 @@
       </c>
       <c r="W56" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X56" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD SWEEPING,</t>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN</t>
         </is>
       </c>
       <c r="Y56" s="0" t="inlineStr">
@@ -6943,11 +6936,11 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="n">
-        <v>36760</v>
+        <v>36778</v>
       </c>
       <c r="B57" s="0" t="inlineStr">
         <is>
-          <t>HJCU1695815</t>
+          <t>HJCU1457252</t>
         </is>
       </c>
       <c r="C57" s="0" t="n">
@@ -6980,12 +6973,12 @@
       </c>
       <c r="I57" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS NUPTSE.023.2016/2140</t>
+          <t>H RICKMERS</t>
         </is>
       </c>
       <c r="J57" s="0" t="inlineStr">
         <is>
-          <t>2016/2140</t>
+          <t>2014/1185</t>
         </is>
       </c>
       <c r="K57" s="0" t="inlineStr">
@@ -6993,17 +6986,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L57" s="0" t="d">
-        <v>2016-08-24T00:00:00</v>
-      </c>
-      <c r="M57" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N57" s="0"/>
+      <c r="L57" s="4" t="d">
+        <v>2016-08-29T00:00:00</v>
+      </c>
+      <c r="M57" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N57" s="4"/>
       <c r="O57" s="0" t="n">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="P57" s="0" t="n">
         <v>0</v>
@@ -7017,21 +7010,21 @@
       <c r="S57" s="0"/>
       <c r="T57" s="0"/>
       <c r="U57" s="0" t="n">
-        <v>1214883</v>
+        <v>1216209</v>
       </c>
       <c r="V57" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>DOORS-(D)</t>
         </is>
       </c>
       <c r="W57" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
         </is>
       </c>
       <c r="X57" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY</t>
+          <t>RIGHT DOOR HINGE PIN BROKEN 02 PCS( DOOR NOT LOCKED)</t>
         </is>
       </c>
       <c r="Y57" s="0" t="inlineStr">
@@ -7052,11 +7045,11 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="n">
-        <v>36760</v>
+        <v>36779</v>
       </c>
       <c r="B58" s="0" t="inlineStr">
         <is>
-          <t>HJCU1695815</t>
+          <t>TEMU6383160</t>
         </is>
       </c>
       <c r="C58" s="0" t="n">
@@ -7089,12 +7082,12 @@
       </c>
       <c r="I58" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS NUPTSE.023.2016/2140</t>
+          <t>HYUNDAI PROGRESS.016.2016/2230</t>
         </is>
       </c>
       <c r="J58" s="0" t="inlineStr">
         <is>
-          <t>2016/2140</t>
+          <t>2016/2231</t>
         </is>
       </c>
       <c r="K58" s="0" t="inlineStr">
@@ -7102,17 +7095,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L58" s="0" t="d">
-        <v>2016-08-24T00:00:00</v>
-      </c>
-      <c r="M58" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N58" s="0"/>
+      <c r="L58" s="4" t="d">
+        <v>2016-08-29T00:00:00</v>
+      </c>
+      <c r="M58" s="4" t="inlineStr">
+        <is>
+          <t>SWEEP</t>
+        </is>
+      </c>
+      <c r="N58" s="4"/>
       <c r="O58" s="0" t="n">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="P58" s="0" t="n">
         <v>0</v>
@@ -7126,21 +7119,21 @@
       <c r="S58" s="0"/>
       <c r="T58" s="0"/>
       <c r="U58" s="0" t="n">
-        <v>1214883</v>
+        <v>1216211</v>
       </c>
       <c r="V58" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W58" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X58" s="0" t="inlineStr">
         <is>
-          <t>INTERIOR PANEL INK</t>
+          <t>FLOOR BOARD SWEEPING,</t>
         </is>
       </c>
       <c r="Y58" s="0" t="inlineStr">
@@ -7161,11 +7154,11 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="n">
-        <v>36762</v>
+        <v>36787</v>
       </c>
       <c r="B59" s="0" t="inlineStr">
         <is>
-          <t>TEMU6711547</t>
+          <t>DRYU9141131</t>
         </is>
       </c>
       <c r="C59" s="0" t="n">
@@ -7198,12 +7191,12 @@
       </c>
       <c r="I59" s="0" t="inlineStr">
         <is>
-          <t>SINAR SANGIR0301/2016/2307</t>
+          <t>HANSA CALYPSO</t>
         </is>
       </c>
       <c r="J59" s="0" t="inlineStr">
         <is>
-          <t>2016/2140</t>
+          <t>395/2016</t>
         </is>
       </c>
       <c r="K59" s="0" t="inlineStr">
@@ -7211,17 +7204,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L59" s="0" t="d">
-        <v>2016-08-24T00:00:00</v>
-      </c>
-      <c r="M59" s="0" t="inlineStr">
+      <c r="L59" s="4" t="d">
+        <v>2016-08-30T00:00:00</v>
+      </c>
+      <c r="M59" s="4" t="inlineStr">
         <is>
           <t>CLEANED</t>
         </is>
       </c>
-      <c r="N59" s="0"/>
+      <c r="N59" s="4"/>
       <c r="O59" s="0" t="n">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="P59" s="0" t="n">
         <v>0</v>
@@ -7235,7 +7228,7 @@
       <c r="S59" s="0"/>
       <c r="T59" s="0"/>
       <c r="U59" s="0" t="n">
-        <v>1214895</v>
+        <v>1216579</v>
       </c>
       <c r="V59" s="0" t="inlineStr">
         <is>
@@ -7270,11 +7263,11 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="n">
-        <v>36762</v>
+        <v>36787</v>
       </c>
       <c r="B60" s="0" t="inlineStr">
         <is>
-          <t>TEMU6711547</t>
+          <t>DRYU9141131</t>
         </is>
       </c>
       <c r="C60" s="0" t="n">
@@ -7307,12 +7300,12 @@
       </c>
       <c r="I60" s="0" t="inlineStr">
         <is>
-          <t>SINAR SANGIR0301/2016/2307</t>
+          <t>HANSA CALYPSO</t>
         </is>
       </c>
       <c r="J60" s="0" t="inlineStr">
         <is>
-          <t>2016/2140</t>
+          <t>395/2016</t>
         </is>
       </c>
       <c r="K60" s="0" t="inlineStr">
@@ -7320,17 +7313,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L60" s="0" t="d">
-        <v>2016-08-24T00:00:00</v>
-      </c>
-      <c r="M60" s="0" t="inlineStr">
+      <c r="L60" s="4" t="d">
+        <v>2016-08-30T00:00:00</v>
+      </c>
+      <c r="M60" s="4" t="inlineStr">
         <is>
           <t>CLEANED</t>
         </is>
       </c>
-      <c r="N60" s="0"/>
+      <c r="N60" s="4"/>
       <c r="O60" s="0" t="n">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="P60" s="0" t="n">
         <v>0</v>
@@ -7344,7 +7337,7 @@
       <c r="S60" s="0"/>
       <c r="T60" s="0"/>
       <c r="U60" s="0" t="n">
-        <v>1214895</v>
+        <v>1216579</v>
       </c>
       <c r="V60" s="0" t="inlineStr">
         <is>
@@ -7379,11 +7372,11 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="n">
-        <v>36763</v>
+        <v>36788</v>
       </c>
       <c r="B61" s="0" t="inlineStr">
         <is>
-          <t>TEMU6204500</t>
+          <t>TEMU6202529</t>
         </is>
       </c>
       <c r="C61" s="0" t="n">
@@ -7416,12 +7409,12 @@
       </c>
       <c r="I61" s="0" t="inlineStr">
         <is>
-          <t>SINAR SANGIR0301/2016/2307</t>
+          <t>H RICKMERS</t>
         </is>
       </c>
       <c r="J61" s="0" t="inlineStr">
         <is>
-          <t>2016/2140</t>
+          <t>2014/1185</t>
         </is>
       </c>
       <c r="K61" s="0" t="inlineStr">
@@ -7429,17 +7422,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L61" s="0" t="d">
-        <v>2016-08-24T00:00:00</v>
-      </c>
-      <c r="M61" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N61" s="0"/>
+      <c r="L61" s="4" t="d">
+        <v>2016-08-30T00:00:00</v>
+      </c>
+      <c r="M61" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N61" s="4"/>
       <c r="O61" s="0" t="n">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="P61" s="0" t="n">
         <v>0</v>
@@ -7453,7 +7446,7 @@
       <c r="S61" s="0"/>
       <c r="T61" s="0"/>
       <c r="U61" s="0" t="n">
-        <v>1214896</v>
+        <v>1216580</v>
       </c>
       <c r="V61" s="0" t="inlineStr">
         <is>
@@ -7467,7 +7460,7 @@
       </c>
       <c r="X61" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY OIL SPOT</t>
+          <t>FLOOR BOARD DIRTY BY MUD DUST &amp; OIL STAIN,</t>
         </is>
       </c>
       <c r="Y61" s="0" t="inlineStr">
@@ -7538,15 +7531,15 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L62" s="0" t="d">
+      <c r="L62" s="4" t="d">
         <v>2016-08-30T00:00:00</v>
       </c>
-      <c r="M62" s="0" t="inlineStr">
+      <c r="M62" s="4" t="inlineStr">
         <is>
           <t>DAMAGE</t>
         </is>
       </c>
-      <c r="N62" s="0"/>
+      <c r="N62" s="4"/>
       <c r="O62" s="0" t="n">
         <v>820</v>
       </c>
@@ -7566,17 +7559,17 @@
       </c>
       <c r="V62" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W62" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X62" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY MUD DUST &amp; OIL STAIN,</t>
+          <t>INTERIOR PANEL INK &amp; SCRATCH,</t>
         </is>
       </c>
       <c r="Y62" s="0" t="inlineStr">
@@ -7647,15 +7640,15 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L63" s="0" t="d">
+      <c r="L63" s="4" t="d">
         <v>2016-08-30T00:00:00</v>
       </c>
-      <c r="M63" s="0" t="inlineStr">
+      <c r="M63" s="4" t="inlineStr">
         <is>
           <t>DAMAGE</t>
         </is>
       </c>
-      <c r="N63" s="0"/>
+      <c r="N63" s="4"/>
       <c r="O63" s="0" t="n">
         <v>820</v>
       </c>
@@ -7675,17 +7668,17 @@
       </c>
       <c r="V63" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W63" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
         </is>
       </c>
       <c r="X63" s="0" t="inlineStr">
         <is>
-          <t>INTERIOR PANEL INK &amp; SCRATCH,</t>
+          <t>FLOOR BOARD WOODEN 2 PCS &amp; BEDLY SCRATCH</t>
         </is>
       </c>
       <c r="Y63" s="0" t="inlineStr">
@@ -7706,11 +7699,11 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="n">
-        <v>36788</v>
+        <v>36789</v>
       </c>
       <c r="B64" s="0" t="inlineStr">
         <is>
-          <t>TEMU6202529</t>
+          <t>GESU6935778</t>
         </is>
       </c>
       <c r="C64" s="0" t="n">
@@ -7756,15 +7749,15 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L64" s="0" t="d">
+      <c r="L64" s="4" t="d">
         <v>2016-08-30T00:00:00</v>
       </c>
-      <c r="M64" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N64" s="0"/>
+      <c r="M64" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N64" s="4"/>
       <c r="O64" s="0" t="n">
         <v>820</v>
       </c>
@@ -7780,7 +7773,7 @@
       <c r="S64" s="0"/>
       <c r="T64" s="0"/>
       <c r="U64" s="0" t="n">
-        <v>1216580</v>
+        <v>1216581</v>
       </c>
       <c r="V64" s="0" t="inlineStr">
         <is>
@@ -7794,7 +7787,7 @@
       </c>
       <c r="X64" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD WOODEN 2 PCS &amp; BEDLY SCRATCH</t>
+          <t>FLOOR BOARD DIRTY BY OIL SPOT</t>
         </is>
       </c>
       <c r="Y64" s="0" t="inlineStr">
@@ -7865,15 +7858,15 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L65" s="0" t="d">
+      <c r="L65" s="4" t="d">
         <v>2016-08-30T00:00:00</v>
       </c>
-      <c r="M65" s="0" t="inlineStr">
+      <c r="M65" s="4" t="inlineStr">
         <is>
           <t>CLEANED</t>
         </is>
       </c>
-      <c r="N65" s="0"/>
+      <c r="N65" s="4"/>
       <c r="O65" s="0" t="n">
         <v>820</v>
       </c>
@@ -7893,17 +7886,17 @@
       </c>
       <c r="V65" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W65" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X65" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY OIL SPOT</t>
+          <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
       <c r="Y65" s="0" t="inlineStr">
@@ -7924,11 +7917,11 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="n">
-        <v>36789</v>
+        <v>36790</v>
       </c>
       <c r="B66" s="0" t="inlineStr">
         <is>
-          <t>GESU6935778</t>
+          <t>SEGU4116472</t>
         </is>
       </c>
       <c r="C66" s="0" t="n">
@@ -7974,15 +7967,15 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L66" s="0" t="d">
+      <c r="L66" s="4" t="d">
         <v>2016-08-30T00:00:00</v>
       </c>
-      <c r="M66" s="0" t="inlineStr">
+      <c r="M66" s="4" t="inlineStr">
         <is>
           <t>CLEANED</t>
         </is>
       </c>
-      <c r="N66" s="0"/>
+      <c r="N66" s="4"/>
       <c r="O66" s="0" t="n">
         <v>820</v>
       </c>
@@ -7998,21 +7991,21 @@
       <c r="S66" s="0"/>
       <c r="T66" s="0"/>
       <c r="U66" s="0" t="n">
-        <v>1216581</v>
+        <v>1216596</v>
       </c>
       <c r="V66" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W66" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
         </is>
       </c>
       <c r="X66" s="0" t="inlineStr">
         <is>
-          <t>INTERIOR PANEL DIRTY</t>
+          <t>FLOOR BOARD DIRTY BY OIL STAIN</t>
         </is>
       </c>
       <c r="Y66" s="0" t="inlineStr">
@@ -8083,15 +8076,15 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L67" s="0" t="d">
+      <c r="L67" s="4" t="d">
         <v>2016-08-30T00:00:00</v>
       </c>
-      <c r="M67" s="0" t="inlineStr">
+      <c r="M67" s="4" t="inlineStr">
         <is>
           <t>CLEANED</t>
         </is>
       </c>
-      <c r="N67" s="0"/>
+      <c r="N67" s="4"/>
       <c r="O67" s="0" t="n">
         <v>820</v>
       </c>
@@ -8111,17 +8104,17 @@
       </c>
       <c r="V67" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W67" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X67" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY OIL STAIN</t>
+          <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
       <c r="Y67" s="0" t="inlineStr">
@@ -8142,19 +8135,19 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="n">
-        <v>36790</v>
+        <v>36796</v>
       </c>
       <c r="B68" s="0" t="inlineStr">
         <is>
-          <t>SEGU4116472</t>
+          <t>HJCU8089229</t>
         </is>
       </c>
       <c r="C68" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D68" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E68" s="0" t="inlineStr">
@@ -8179,30 +8172,30 @@
       </c>
       <c r="I68" s="0" t="inlineStr">
         <is>
-          <t>H RICKMERS</t>
+          <t>KOTA BINTANG</t>
         </is>
       </c>
       <c r="J68" s="0" t="inlineStr">
         <is>
-          <t>2014/1185</t>
+          <t>2229/2016</t>
         </is>
       </c>
       <c r="K68" s="0" t="inlineStr">
         <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="L68" s="0" t="d">
-        <v>2016-08-30T00:00:00</v>
-      </c>
-      <c r="M68" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N68" s="0"/>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L68" s="4" t="d">
+        <v>2016-08-28T00:00:00</v>
+      </c>
+      <c r="M68" s="4" t="inlineStr">
+        <is>
+          <t>SWEEP</t>
+        </is>
+      </c>
+      <c r="N68" s="4"/>
       <c r="O68" s="0" t="n">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="P68" s="0" t="n">
         <v>0</v>
@@ -8216,21 +8209,21 @@
       <c r="S68" s="0"/>
       <c r="T68" s="0"/>
       <c r="U68" s="0" t="n">
-        <v>1216596</v>
+        <v>1216692</v>
       </c>
       <c r="V68" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W68" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
         </is>
       </c>
       <c r="X68" s="0" t="inlineStr">
         <is>
-          <t>INTERIOR PANEL DIRTY</t>
+          <t>FLOOR BOARD SWEEPING &amp; SCRATCH</t>
         </is>
       </c>
       <c r="Y68" s="0" t="inlineStr">
@@ -8251,19 +8244,19 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="n">
-        <v>36796</v>
+        <v>36797</v>
       </c>
       <c r="B69" s="0" t="inlineStr">
         <is>
-          <t>HJCU8089229</t>
+          <t>BMOU4935539</t>
         </is>
       </c>
       <c r="C69" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D69" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E69" s="0" t="inlineStr">
@@ -8288,30 +8281,30 @@
       </c>
       <c r="I69" s="0" t="inlineStr">
         <is>
-          <t>KOTA BINTANG</t>
+          <t>H RICKMERS</t>
         </is>
       </c>
       <c r="J69" s="0" t="inlineStr">
         <is>
-          <t>2229/2016</t>
+          <t>2014/1185</t>
         </is>
       </c>
       <c r="K69" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L69" s="0" t="d">
-        <v>2016-08-28T00:00:00</v>
-      </c>
-      <c r="M69" s="0" t="inlineStr">
-        <is>
-          <t>SWEEP</t>
-        </is>
-      </c>
-      <c r="N69" s="0"/>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="L69" s="4" t="d">
+        <v>2016-08-30T00:00:00</v>
+      </c>
+      <c r="M69" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N69" s="4"/>
       <c r="O69" s="0" t="n">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="P69" s="0" t="n">
         <v>0</v>
@@ -8325,7 +8318,7 @@
       <c r="S69" s="0"/>
       <c r="T69" s="0"/>
       <c r="U69" s="0" t="n">
-        <v>1216692</v>
+        <v>1216693</v>
       </c>
       <c r="V69" s="0" t="inlineStr">
         <is>
@@ -8339,7 +8332,7 @@
       </c>
       <c r="X69" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD SWEEPING &amp; SCRATCH</t>
+          <t>FLOOR BOARD DIRTY</t>
         </is>
       </c>
       <c r="Y69" s="0" t="inlineStr">
@@ -8410,15 +8403,15 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L70" s="0" t="d">
+      <c r="L70" s="4" t="d">
         <v>2016-08-30T00:00:00</v>
       </c>
-      <c r="M70" s="0" t="inlineStr">
+      <c r="M70" s="4" t="inlineStr">
         <is>
           <t>CLEANED</t>
         </is>
       </c>
-      <c r="N70" s="0"/>
+      <c r="N70" s="4"/>
       <c r="O70" s="0" t="n">
         <v>820</v>
       </c>
@@ -8438,17 +8431,17 @@
       </c>
       <c r="V70" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W70" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X70" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY</t>
+          <t>INTERIOR PANEL INK</t>
         </is>
       </c>
       <c r="Y70" s="0" t="inlineStr">
@@ -8519,15 +8512,15 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L71" s="0" t="d">
+      <c r="L71" s="4" t="d">
         <v>2016-08-30T00:00:00</v>
       </c>
-      <c r="M71" s="0" t="inlineStr">
+      <c r="M71" s="4" t="inlineStr">
         <is>
           <t>CLEANED</t>
         </is>
       </c>
-      <c r="N71" s="0"/>
+      <c r="N71" s="4"/>
       <c r="O71" s="0" t="n">
         <v>820</v>
       </c>
@@ -8547,17 +8540,17 @@
       </c>
       <c r="V71" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>DOORS-(D)</t>
         </is>
       </c>
       <c r="W71" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
         </is>
       </c>
       <c r="X71" s="0" t="inlineStr">
         <is>
-          <t>INTERIOR PANEL INK</t>
+          <t>RIGHT DOOR INNER GASKET CUT 3"</t>
         </is>
       </c>
       <c r="Y71" s="0" t="inlineStr">
@@ -8578,11 +8571,11 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="n">
-        <v>36797</v>
+        <v>36798</v>
       </c>
       <c r="B72" s="0" t="inlineStr">
         <is>
-          <t>BMOU4935539</t>
+          <t>DRYU9616915</t>
         </is>
       </c>
       <c r="C72" s="0" t="n">
@@ -8615,30 +8608,30 @@
       </c>
       <c r="I72" s="0" t="inlineStr">
         <is>
-          <t>H RICKMERS</t>
+          <t>KOTA BINTANG</t>
         </is>
       </c>
       <c r="J72" s="0" t="inlineStr">
         <is>
-          <t>2014/1185</t>
+          <t>2229/2016</t>
         </is>
       </c>
       <c r="K72" s="0" t="inlineStr">
         <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="L72" s="0" t="d">
-        <v>2016-08-30T00:00:00</v>
-      </c>
-      <c r="M72" s="0" t="inlineStr">
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L72" s="4" t="d">
+        <v>2016-08-28T00:00:00</v>
+      </c>
+      <c r="M72" s="4" t="inlineStr">
         <is>
           <t>CLEANED</t>
         </is>
       </c>
-      <c r="N72" s="0"/>
+      <c r="N72" s="4"/>
       <c r="O72" s="0" t="n">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="P72" s="0" t="n">
         <v>0</v>
@@ -8652,21 +8645,21 @@
       <c r="S72" s="0"/>
       <c r="T72" s="0"/>
       <c r="U72" s="0" t="n">
-        <v>1216693</v>
+        <v>1216701</v>
       </c>
       <c r="V72" s="0" t="inlineStr">
         <is>
-          <t>DOORS-(D)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W72" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
         </is>
       </c>
       <c r="X72" s="0" t="inlineStr">
         <is>
-          <t>RIGHT DOOR INNER GASKET CUT 3"</t>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN</t>
         </is>
       </c>
       <c r="Y72" s="0" t="inlineStr">
@@ -8737,15 +8730,15 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L73" s="0" t="d">
+      <c r="L73" s="4" t="d">
         <v>2016-08-28T00:00:00</v>
       </c>
-      <c r="M73" s="0" t="inlineStr">
+      <c r="M73" s="4" t="inlineStr">
         <is>
           <t>CLEANED</t>
         </is>
       </c>
-      <c r="N73" s="0"/>
+      <c r="N73" s="4"/>
       <c r="O73" s="0" t="n">
         <v>822</v>
       </c>
@@ -8765,17 +8758,17 @@
       </c>
       <c r="V73" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W73" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X73" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN</t>
+          <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
       <c r="Y73" s="0" t="inlineStr">
@@ -8796,19 +8789,19 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="n">
-        <v>36798</v>
+        <v>36805</v>
       </c>
       <c r="B74" s="0" t="inlineStr">
         <is>
-          <t>DRYU9616915</t>
+          <t>HJCU2067027</t>
         </is>
       </c>
       <c r="C74" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D74" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E74" s="0" t="inlineStr">
@@ -8833,12 +8826,12 @@
       </c>
       <c r="I74" s="0" t="inlineStr">
         <is>
-          <t>KOTA BINTANG</t>
+          <t>KOTA BUANA</t>
         </is>
       </c>
       <c r="J74" s="0" t="inlineStr">
         <is>
-          <t>2229/2016</t>
+          <t>2317/2016</t>
         </is>
       </c>
       <c r="K74" s="0" t="inlineStr">
@@ -8846,17 +8839,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L74" s="0" t="d">
-        <v>2016-08-28T00:00:00</v>
-      </c>
-      <c r="M74" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N74" s="0"/>
+      <c r="L74" s="4" t="d">
+        <v>2016-08-31T00:00:00</v>
+      </c>
+      <c r="M74" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N74" s="4"/>
       <c r="O74" s="0" t="n">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="P74" s="0" t="n">
         <v>0</v>
@@ -8870,21 +8863,21 @@
       <c r="S74" s="0"/>
       <c r="T74" s="0"/>
       <c r="U74" s="0" t="n">
-        <v>1216701</v>
+        <v>1217061</v>
       </c>
       <c r="V74" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W74" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X74" s="0" t="inlineStr">
         <is>
-          <t>INTERIOR PANEL DIRTY</t>
+          <t>FLOOR BOARD TYRE MARK</t>
         </is>
       </c>
       <c r="Y74" s="0" t="inlineStr">
@@ -8955,15 +8948,15 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L75" s="0" t="d">
+      <c r="L75" s="4" t="d">
         <v>2016-08-31T00:00:00</v>
       </c>
-      <c r="M75" s="0" t="inlineStr">
+      <c r="M75" s="4" t="inlineStr">
         <is>
           <t>DAMAGE</t>
         </is>
       </c>
-      <c r="N75" s="0"/>
+      <c r="N75" s="4"/>
       <c r="O75" s="0" t="n">
         <v>819</v>
       </c>
@@ -8983,17 +8976,17 @@
       </c>
       <c r="V75" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W75" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X75" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD TYRE MARK</t>
+          <t>ROOF PANEL HOLE 2'X01'</t>
         </is>
       </c>
       <c r="Y75" s="0" t="inlineStr">
@@ -9064,15 +9057,15 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L76" s="0" t="d">
+      <c r="L76" s="4" t="d">
         <v>2016-08-31T00:00:00</v>
       </c>
-      <c r="M76" s="0" t="inlineStr">
+      <c r="M76" s="4" t="inlineStr">
         <is>
           <t>DAMAGE</t>
         </is>
       </c>
-      <c r="N76" s="0"/>
+      <c r="N76" s="4"/>
       <c r="O76" s="0" t="n">
         <v>819</v>
       </c>
@@ -9092,17 +9085,17 @@
       </c>
       <c r="V76" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>DOORS-(D)</t>
         </is>
       </c>
       <c r="W76" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
         </is>
       </c>
       <c r="X76" s="0" t="inlineStr">
         <is>
-          <t>ROOF PANEL HOLE 2'X01'</t>
+          <t>LEFT DOOR LOCK BAR BENT 01 PCS</t>
         </is>
       </c>
       <c r="Y76" s="0" t="inlineStr">
@@ -9123,11 +9116,11 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="n">
-        <v>36805</v>
+        <v>36806</v>
       </c>
       <c r="B77" s="0" t="inlineStr">
         <is>
-          <t>HJCU2067027</t>
+          <t>HJCU2964415</t>
         </is>
       </c>
       <c r="C77" s="0" t="n">
@@ -9173,15 +9166,15 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L77" s="0" t="d">
+      <c r="L77" s="4" t="d">
         <v>2016-08-31T00:00:00</v>
       </c>
-      <c r="M77" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N77" s="0"/>
+      <c r="M77" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N77" s="4"/>
       <c r="O77" s="0" t="n">
         <v>819</v>
       </c>
@@ -9197,21 +9190,21 @@
       <c r="S77" s="0"/>
       <c r="T77" s="0"/>
       <c r="U77" s="0" t="n">
-        <v>1217061</v>
+        <v>1217092</v>
       </c>
       <c r="V77" s="0" t="inlineStr">
         <is>
-          <t>DOORS-(D)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W77" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X77" s="0" t="inlineStr">
         <is>
-          <t>LEFT DOOR LOCK BAR BENT 01 PCS</t>
+          <t>FLOOR BOARD DIRTY &amp; ODOR</t>
         </is>
       </c>
       <c r="Y77" s="0" t="inlineStr">
@@ -9232,11 +9225,11 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="n">
-        <v>36806</v>
+        <v>36809</v>
       </c>
       <c r="B78" s="0" t="inlineStr">
         <is>
-          <t>HJCU2964415</t>
+          <t>HJCU8405332</t>
         </is>
       </c>
       <c r="C78" s="0" t="n">
@@ -9269,30 +9262,30 @@
       </c>
       <c r="I78" s="0" t="inlineStr">
         <is>
-          <t>KOTA BUANA</t>
+          <t>OEL MALAYSIA</t>
         </is>
       </c>
       <c r="J78" s="0" t="inlineStr">
         <is>
-          <t>2317/2016</t>
+          <t>2451/2016</t>
         </is>
       </c>
       <c r="K78" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L78" s="0" t="d">
-        <v>2016-08-31T00:00:00</v>
-      </c>
-      <c r="M78" s="0" t="inlineStr">
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="L78" s="4" t="d">
+        <v>2016-10-09T00:00:00</v>
+      </c>
+      <c r="M78" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N78" s="0"/>
+      <c r="N78" s="4"/>
       <c r="O78" s="0" t="n">
-        <v>819</v>
+        <v>780</v>
       </c>
       <c r="P78" s="0" t="n">
         <v>0</v>
@@ -9306,7 +9299,7 @@
       <c r="S78" s="0"/>
       <c r="T78" s="0"/>
       <c r="U78" s="0" t="n">
-        <v>1217092</v>
+        <v>1227418</v>
       </c>
       <c r="V78" s="0" t="inlineStr">
         <is>
@@ -9320,7 +9313,7 @@
       </c>
       <c r="X78" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY &amp; ODOR</t>
+          <t>FLOOR BOARD DIRTY BY OIL SPOT</t>
         </is>
       </c>
       <c r="Y78" s="0" t="inlineStr">
@@ -9334,115 +9327,6 @@
         </is>
       </c>
       <c r="AA78" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="0" t="n">
-        <v>36809</v>
-      </c>
-      <c r="B79" s="0" t="inlineStr">
-        <is>
-          <t>HJCU8405332</t>
-        </is>
-      </c>
-      <c r="C79" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="D79" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="E79" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="F79" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="G79" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="H79" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I79" s="0" t="inlineStr">
-        <is>
-          <t>OEL MALAYSIA</t>
-        </is>
-      </c>
-      <c r="J79" s="0" t="inlineStr">
-        <is>
-          <t>2451/2016</t>
-        </is>
-      </c>
-      <c r="K79" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="L79" s="0" t="d">
-        <v>2016-10-09T00:00:00</v>
-      </c>
-      <c r="M79" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N79" s="0"/>
-      <c r="O79" s="0" t="n">
-        <v>780</v>
-      </c>
-      <c r="P79" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q79" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
-      <c r="R79" s="0"/>
-      <c r="S79" s="0"/>
-      <c r="T79" s="0"/>
-      <c r="U79" s="0" t="n">
-        <v>1227418</v>
-      </c>
-      <c r="V79" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
-      <c r="W79" s="0" t="inlineStr">
-        <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="X79" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY OIL SPOT</t>
-        </is>
-      </c>
-      <c r="Y79" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z79" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA79" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -9469,23 +9353,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.2561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.713483146067418"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="5.289887640449439"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.213483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -9495,78 +9379,117 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>HJB</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
+          <t>Stock Report Summary</t>
+        </is>
+      </c>
+    </row>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Container Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total Box</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>Total Teus</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>HSB</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
           <t>HJB</t>
         </is>
       </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Stock Report Summary</t>
-        </is>
-      </c>
-    </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>20-GP</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -9582,32 +9505,32 @@
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>20-GP</t>
+          <t>40-HC</t>
         </is>
       </c>
       <c r="D7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="H7" s="0" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>4</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -9623,72 +9546,31 @@
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>40-HC</t>
+          <t>45-HC</t>
         </is>
       </c>
       <c r="D8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H8" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>35</v>
-      </c>
       <c r="K8" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>45-HC</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="0" t="n">
         <v>2</v>
       </c>
     </row>
